--- a/etf_dfs/TUR.xlsx
+++ b/etf_dfs/TUR.xlsx
@@ -1,78 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Open</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>Close</t>
-  </si>
-  <si>
-    <t>Adj Close</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>Return</t>
-  </si>
-  <si>
-    <t>Volatility</t>
-  </si>
-  <si>
-    <t>Trend</t>
-  </si>
-  <si>
-    <t>TUR</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -87,38 +49,96 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -406,5810 +426,5863 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:K168"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="2">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Close</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Adj Close</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Volume</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Return</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Volatility</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Trend</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
         <v>39508</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>45.9900016784668</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>46.61000061035156</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>45.70000076293945</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>46.36000061035156</v>
       </c>
-      <c r="F2">
-        <v>33.443359375</v>
-      </c>
-      <c r="G2">
+      <c r="F2" t="n">
+        <v>33.44335556030273</v>
+      </c>
+      <c r="G2" t="n">
         <v>112300</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="2">
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>39539</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>52.36000061035156</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>55.5</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>52.31999969482422</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>53.34000015258789</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>38.47862243652344</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>59300</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>0.1505608164439451</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="2">
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>39569</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>52</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>52.40000152587891</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>51.7599983215332</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>52.2400016784668</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>37.68509674072266</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>50200</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>-0.02062239353157791</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>0.121044808598973</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="2">
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>39600</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>45.5099983215332</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>45.81999969482422</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>44</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>45.34000015258789</v>
       </c>
-      <c r="F5">
-        <v>32.70755004882812</v>
-      </c>
-      <c r="G5">
+      <c r="F5" t="n">
+        <v>32.70753860473633</v>
+      </c>
+      <c r="G5" t="n">
         <v>52400</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>-0.1320827202178876</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>0.1423695102068626</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="2">
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>39630</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>55.9900016784668</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>57.72000122070312</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>55.83000183105469</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>56.77999877929688</v>
       </c>
-      <c r="F6">
-        <v>40.96017456054688</v>
-      </c>
-      <c r="G6">
+      <c r="F6" t="n">
+        <v>40.96017837524414</v>
+      </c>
+      <c r="G6" t="n">
         <v>84600</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>0.2523158047686072</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="n">
         <v>0.1718104644589855</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="2">
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>39661</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>52.45999908447266</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>52.47999954223633</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>51.63000106811523</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>52.11000061035156</v>
       </c>
-      <c r="F7">
-        <v>37.59130859375</v>
-      </c>
-      <c r="G7">
+      <c r="F7" t="n">
+        <v>37.59131622314453</v>
+      </c>
+      <c r="G7" t="n">
         <v>10400</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="n">
         <v>-0.08224723968553671</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="n">
         <v>0.1622712616065997</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="2">
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>39692</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>43</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>44.59999847412109</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>42.65000152587891</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>44.59999847412109</v>
       </c>
-      <c r="F8">
-        <v>32.1737174987793</v>
-      </c>
-      <c r="G8">
+      <c r="F8" t="n">
+        <v>32.17372512817383</v>
+      </c>
+      <c r="G8" t="n">
         <v>25500</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="n">
         <v>-0.1441182507823386</v>
       </c>
-      <c r="I8">
+      <c r="I8" t="n">
         <v>0.1622610101757949</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="2">
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>39722</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>27.95000076293945</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>28.73999977111816</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>26.80999946594238</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>28.73999977111816</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>20.73257255554199</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="n">
         <v>9900</v>
       </c>
-      <c r="H9">
+      <c r="H9" t="n">
         <v>-0.3556053642514272</v>
       </c>
-      <c r="I9">
+      <c r="I9" t="n">
         <v>0.201024686911963</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="2">
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
         <v>39753</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>25.1299991607666</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>25.92000007629395</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>25.1299991607666</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>25.45000076293945</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>18.35922241210938</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="n">
         <v>40900</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="n">
         <v>-0.1144745662623472</v>
       </c>
-      <c r="I10">
+      <c r="I10" t="n">
         <v>0.1876174611860613</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="2">
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
         <v>39783</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>26.29999923706055</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>27.28000068664551</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>26.29999923706055</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>27.1200008392334</v>
       </c>
-      <c r="F11">
-        <v>19.85586738586426</v>
-      </c>
-      <c r="G11">
+      <c r="F11" t="n">
+        <v>19.85586166381836</v>
+      </c>
+      <c r="G11" t="n">
         <v>15900</v>
       </c>
-      <c r="H11">
+      <c r="H11" t="n">
         <v>0.06561886154148233</v>
       </c>
-      <c r="I11">
+      <c r="I11" t="n">
         <v>0.1801052679329084</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="2">
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
         <v>39814</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>24.84000015258789</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>24.84000015258789</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>23.72999954223633</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>23.81999969482422</v>
       </c>
-      <c r="F12">
-        <v>17.43977355957031</v>
-      </c>
-      <c r="G12">
+      <c r="F12" t="n">
+        <v>17.43977165222168</v>
+      </c>
+      <c r="G12" t="n">
         <v>9100</v>
       </c>
-      <c r="H12">
+      <c r="H12" t="n">
         <v>-0.1216814543617271</v>
       </c>
-      <c r="I12">
+      <c r="I12" t="n">
         <v>0.1716505648418504</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="2">
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
         <v>39845</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="n">
         <v>21.57999992370605</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>22.52000045776367</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="n">
         <v>21.57999992370605</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>22.52000045776367</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="n">
         <v>16.48797988891602</v>
       </c>
-      <c r="G13">
+      <c r="G13" t="n">
         <v>14400</v>
       </c>
-      <c r="H13">
+      <c r="H13" t="n">
         <v>-0.0545759552357602</v>
       </c>
-      <c r="I13">
+      <c r="I13" t="n">
         <v>0.1628472870998151</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="2">
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
         <v>39873</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>23.57999992370605</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>24.51000022888184</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="n">
         <v>23.57999992370605</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>24.13999938964844</v>
       </c>
-      <c r="F14">
-        <v>17.67405700683594</v>
-      </c>
-      <c r="G14">
+      <c r="F14" t="n">
+        <v>17.67406463623047</v>
+      </c>
+      <c r="G14" t="n">
         <v>18300</v>
       </c>
-      <c r="H14">
+      <c r="H14" t="n">
         <v>0.07193600794649524</v>
       </c>
-      <c r="I14">
+      <c r="I14" t="n">
         <v>0.1592489726914697</v>
       </c>
-      <c r="J14">
+      <c r="J14" t="n">
         <v>-0.4792925135497452</v>
       </c>
-      <c r="K14">
+      <c r="K14" t="n">
         <v>-0.4792925135497452</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="2">
+    <row r="15">
+      <c r="A15" s="2" t="n">
         <v>39904</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="n">
         <v>31.03000068664551</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="n">
         <v>31.09000015258789</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="n">
         <v>30.40999984741211</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="n">
         <v>30.40999984741211</v>
       </c>
-      <c r="F15">
-        <v>22.26463317871094</v>
-      </c>
-      <c r="G15">
+      <c r="F15" t="n">
+        <v>22.2646312713623</v>
+      </c>
+      <c r="G15" t="n">
         <v>52800</v>
       </c>
-      <c r="H15">
+      <c r="H15" t="n">
         <v>0.2597349053974016</v>
       </c>
-      <c r="I15">
+      <c r="I15" t="n">
         <v>0.1737148988341524</v>
       </c>
-      <c r="J15">
+      <c r="J15" t="n">
         <v>-0.429883769021011</v>
       </c>
-      <c r="K15">
+      <c r="K15" t="n">
         <v>-0.429883769021011</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="2">
+    <row r="16">
+      <c r="A16" s="2" t="n">
         <v>39934</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="n">
         <v>36.36000061035156</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>36.61000061035156</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="n">
         <v>35.93999862670898</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="n">
         <v>36.54000091552734</v>
       </c>
-      <c r="F16">
-        <v>26.75269889831543</v>
-      </c>
-      <c r="G16">
+      <c r="F16" t="n">
+        <v>26.75270652770996</v>
+      </c>
+      <c r="G16" t="n">
         <v>37700</v>
       </c>
-      <c r="H16">
+      <c r="H16" t="n">
         <v>0.2015784642839089</v>
       </c>
-      <c r="I16">
+      <c r="I16" t="n">
         <v>0.1768569328156378</v>
       </c>
-      <c r="J16">
+      <c r="J16" t="n">
         <v>-0.3005359926971625</v>
       </c>
-      <c r="K16">
+      <c r="K16" t="n">
         <v>-0.3005359926971625</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="2">
+    <row r="17">
+      <c r="A17" s="2" t="n">
         <v>39965</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="n">
         <v>38.31999969482422</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>38.36000061035156</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="n">
         <v>36.91999816894531</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="n">
         <v>37.63999938964844</v>
       </c>
-      <c r="F17">
-        <v>28.01767921447754</v>
-      </c>
-      <c r="G17">
+      <c r="F17" t="n">
+        <v>28.01767158508301</v>
+      </c>
+      <c r="G17" t="n">
         <v>62900</v>
       </c>
-      <c r="H17">
+      <c r="H17" t="n">
         <v>0.03010395310782976</v>
       </c>
-      <c r="I17">
+      <c r="I17" t="n">
         <v>0.1706212072458664</v>
       </c>
-      <c r="J17">
+      <c r="J17" t="n">
         <v>-0.1698279827310489</v>
       </c>
-      <c r="K17">
+      <c r="K17" t="n">
         <v>-0.1698279827310489</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="2">
+    <row r="18">
+      <c r="A18" s="2" t="n">
         <v>39995</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="n">
         <v>44.95999908447266</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>45.52000045776367</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="n">
         <v>44.77000045776367</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="n">
         <v>45.0099983215332</v>
       </c>
-      <c r="F18">
-        <v>33.50360870361328</v>
-      </c>
-      <c r="G18">
+      <c r="F18" t="n">
+        <v>33.50360107421875</v>
+      </c>
+      <c r="G18" t="n">
         <v>177600</v>
       </c>
-      <c r="H18">
+      <c r="H18" t="n">
         <v>0.1958023127362649</v>
       </c>
-      <c r="I18">
+      <c r="I18" t="n">
         <v>0.171919994252254</v>
       </c>
-      <c r="J18">
+      <c r="J18" t="n">
         <v>-0.2072913122720117</v>
       </c>
-      <c r="K18">
+      <c r="K18" t="n">
         <v>-0.2072913122720117</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="2">
+    <row r="19">
+      <c r="A19" s="2" t="n">
         <v>40026</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="n">
         <v>48.91999816894531</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
         <v>48.91999816894531</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="n">
         <v>47.88000106811523</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="n">
         <v>48.40999984741211</v>
       </c>
-      <c r="F19">
+      <c r="F19" t="n">
         <v>36.03442764282227</v>
       </c>
-      <c r="G19">
+      <c r="G19" t="n">
         <v>370000</v>
       </c>
-      <c r="H19">
+      <c r="H19" t="n">
         <v>0.07553880588021067</v>
       </c>
-      <c r="I19">
+      <c r="I19" t="n">
         <v>0.1671583795064259</v>
       </c>
-      <c r="J19">
+      <c r="J19" t="n">
         <v>-0.07100365994247282</v>
       </c>
-      <c r="K19">
+      <c r="K19" t="n">
         <v>-0.07100365994247282</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="2">
+    <row r="20">
+      <c r="A20" s="2" t="n">
         <v>40057</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="n">
         <v>51.15999984741211</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="n">
         <v>51.43000030517578</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="n">
         <v>49.70999908447266</v>
       </c>
-      <c r="E20">
+      <c r="E20" t="n">
         <v>50.27999877929688</v>
       </c>
-      <c r="F20">
-        <v>37.4263801574707</v>
-      </c>
-      <c r="G20">
+      <c r="F20" t="n">
+        <v>37.42637634277344</v>
+      </c>
+      <c r="G20" t="n">
         <v>215400</v>
       </c>
-      <c r="H20">
+      <c r="H20" t="n">
         <v>0.03862836062340391</v>
       </c>
-      <c r="I20">
+      <c r="I20" t="n">
         <v>0.1622525172711569</v>
       </c>
-      <c r="J20">
+      <c r="J20" t="n">
         <v>0.1273542712893043</v>
       </c>
-      <c r="K20">
+      <c r="K20" t="n">
         <v>0.1273542712893043</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="2">
+    <row r="21">
+      <c r="A21" s="2" t="n">
         <v>40087</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="n">
         <v>50.61000061035156</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="n">
         <v>51.15000152587891</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="n">
         <v>47.25</v>
       </c>
-      <c r="E21">
+      <c r="E21" t="n">
         <v>47.93999862670898</v>
       </c>
-      <c r="F21">
-        <v>35.68458938598633</v>
-      </c>
-      <c r="G21">
+      <c r="F21" t="n">
+        <v>35.68457412719727</v>
+      </c>
+      <c r="G21" t="n">
         <v>538000</v>
       </c>
-      <c r="H21">
+      <c r="H21" t="n">
         <v>-0.04653938363959154</v>
       </c>
-      <c r="I21">
+      <c r="I21" t="n">
         <v>0.1583657265807292</v>
       </c>
-      <c r="J21">
+      <c r="J21" t="n">
         <v>0.6680584206157709</v>
       </c>
-      <c r="K21">
+      <c r="K21" t="n">
         <v>0.6680584206157709</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="2">
+    <row r="22">
+      <c r="A22" s="2" t="n">
         <v>40118</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>45.68999862670898</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="n">
         <v>46.02999877929688</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="n">
         <v>45.31000137329102</v>
       </c>
-      <c r="E22">
+      <c r="E22" t="n">
         <v>45.97999954223633</v>
       </c>
-      <c r="F22">
-        <v>34.22563552856445</v>
-      </c>
-      <c r="G22">
+      <c r="F22" t="n">
+        <v>34.22563171386719</v>
+      </c>
+      <c r="G22" t="n">
         <v>248400</v>
       </c>
-      <c r="H22">
+      <c r="H22" t="n">
         <v>-0.0408844209557544</v>
       </c>
-      <c r="I22">
+      <c r="I22" t="n">
         <v>0.1546332894773141</v>
       </c>
-      <c r="J22">
+      <c r="J22" t="n">
         <v>0.8066796920962322</v>
       </c>
-      <c r="K22">
+      <c r="K22" t="n">
         <v>0.8066796920962322</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="2">
+    <row r="23">
+      <c r="A23" s="2" t="n">
         <v>40148</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="n">
         <v>54.84999847412109</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="n">
         <v>54.9900016784668</v>
       </c>
-      <c r="D23">
+      <c r="D23" t="n">
         <v>53.90000152587891</v>
       </c>
-      <c r="E23">
+      <c r="E23" t="n">
         <v>53.90000152587891</v>
       </c>
-      <c r="F23">
+      <c r="F23" t="n">
         <v>40.3233528137207</v>
       </c>
-      <c r="G23">
+      <c r="G23" t="n">
         <v>175000</v>
       </c>
-      <c r="H23">
+      <c r="H23" t="n">
         <v>0.1722488486840332</v>
       </c>
-      <c r="I23">
+      <c r="I23" t="n">
         <v>0.1547486437656375</v>
       </c>
-      <c r="J23">
+      <c r="J23" t="n">
         <v>0.9874631216052168</v>
       </c>
-      <c r="K23">
+      <c r="K23" t="n">
         <v>0.9874631216052168</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="2">
+    <row r="24">
+      <c r="A24" s="2" t="n">
         <v>40179</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="n">
         <v>56.7599983215332</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="n">
         <v>56.93999862670898</v>
       </c>
-      <c r="D24">
+      <c r="D24" t="n">
         <v>55.29999923706055</v>
       </c>
-      <c r="E24">
+      <c r="E24" t="n">
         <v>55.66999816894531</v>
       </c>
-      <c r="F24">
-        <v>41.64752197265625</v>
-      </c>
-      <c r="G24">
+      <c r="F24" t="n">
+        <v>41.64750671386719</v>
+      </c>
+      <c r="G24" t="n">
         <v>214400</v>
       </c>
-      <c r="H24">
+      <c r="H24" t="n">
         <v>0.03283852677103516</v>
       </c>
-      <c r="I24">
+      <c r="I24" t="n">
         <v>0.1510475884629233</v>
       </c>
-      <c r="J24">
+      <c r="J24" t="n">
         <v>1.337111623936825</v>
       </c>
-      <c r="K24">
+      <c r="K24" t="n">
         <v>1.337111623936825</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="2">
+    <row r="25">
+      <c r="A25" s="2" t="n">
         <v>40210</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="n">
         <v>49</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="n">
         <v>49.9900016784668</v>
       </c>
-      <c r="D25">
+      <c r="D25" t="n">
         <v>48.66999816894531</v>
       </c>
-      <c r="E25">
+      <c r="E25" t="n">
         <v>49.81000137329102</v>
       </c>
-      <c r="F25">
+      <c r="F25" t="n">
         <v>37.2635612487793</v>
       </c>
-      <c r="G25">
+      <c r="G25" t="n">
         <v>178000</v>
       </c>
-      <c r="H25">
+      <c r="H25" t="n">
         <v>-0.1052631037973198</v>
       </c>
-      <c r="I25">
+      <c r="I25" t="n">
         <v>0.1498585709026352</v>
       </c>
-      <c r="J25">
+      <c r="J25" t="n">
         <v>1.211811738934456</v>
       </c>
-      <c r="K25">
+      <c r="K25" t="n">
         <v>1.211811738934456</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="2">
+    <row r="26">
+      <c r="A26" s="2" t="n">
         <v>40238</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="n">
         <v>57.63999938964844</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="n">
         <v>57.79999923706055</v>
       </c>
-      <c r="D26">
+      <c r="D26" t="n">
         <v>57.0099983215332</v>
       </c>
-      <c r="E26">
+      <c r="E26" t="n">
         <v>57.31000137329102</v>
       </c>
-      <c r="F26">
-        <v>42.87442398071289</v>
-      </c>
-      <c r="G26">
+      <c r="F26" t="n">
+        <v>42.87442016601562</v>
+      </c>
+      <c r="G26" t="n">
         <v>89400</v>
       </c>
-      <c r="H26">
+      <c r="H26" t="n">
         <v>0.1505721701108329</v>
       </c>
-      <c r="I26">
+      <c r="I26" t="n">
         <v>0.1491810063093432</v>
       </c>
-      <c r="J26">
+      <c r="J26" t="n">
         <v>1.374068053948101</v>
       </c>
-      <c r="K26">
+      <c r="K26" t="n">
         <v>1.374068053948101</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="2">
+    <row r="27">
+      <c r="A27" s="2" t="n">
         <v>40269</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="n">
         <v>61.97999954223633</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="n">
         <v>62.33000183105469</v>
       </c>
-      <c r="D27">
+      <c r="D27" t="n">
         <v>61.0099983215332</v>
       </c>
-      <c r="E27">
+      <c r="E27" t="n">
         <v>61.38000106811523</v>
       </c>
-      <c r="F27">
-        <v>45.91924285888672</v>
-      </c>
-      <c r="G27">
+      <c r="F27" t="n">
+        <v>45.91925430297852</v>
+      </c>
+      <c r="G27" t="n">
         <v>92600</v>
       </c>
-      <c r="H27">
+      <c r="H27" t="n">
         <v>0.07101726744541681</v>
       </c>
-      <c r="I27">
+      <c r="I27" t="n">
         <v>0.1463963713148846</v>
       </c>
-      <c r="J27">
+      <c r="J27" t="n">
         <v>1.018415040319005</v>
       </c>
-      <c r="K27">
+      <c r="K27" t="n">
         <v>1.018415040319005</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="2">
+    <row r="28">
+      <c r="A28" s="2" t="n">
         <v>40299</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="n">
         <v>54.79000091552734</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="n">
         <v>55.02000045776367</v>
       </c>
-      <c r="D28">
+      <c r="D28" t="n">
         <v>53.90999984741211</v>
       </c>
-      <c r="E28">
+      <c r="E28" t="n">
         <v>54</v>
       </c>
-      <c r="F28">
-        <v>40.39817047119141</v>
-      </c>
-      <c r="G28">
+      <c r="F28" t="n">
+        <v>40.39816665649414</v>
+      </c>
+      <c r="G28" t="n">
         <v>105300</v>
       </c>
-      <c r="H28">
+      <c r="H28" t="n">
         <v>-0.1202346194149692</v>
       </c>
-      <c r="I28">
+      <c r="I28" t="n">
         <v>0.1461263157545672</v>
       </c>
-      <c r="J28">
+      <c r="J28" t="n">
         <v>0.4778324752874648</v>
       </c>
-      <c r="K28">
+      <c r="K28" t="n">
         <v>0.4778324752874648</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="2">
+    <row r="29">
+      <c r="A29" s="2" t="n">
         <v>40330</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="n">
         <v>53.4900016784668</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="n">
         <v>54.31999969482422</v>
       </c>
-      <c r="D29">
+      <c r="D29" t="n">
         <v>52.86999893188477</v>
       </c>
-      <c r="E29">
+      <c r="E29" t="n">
         <v>52.93000030517578</v>
       </c>
-      <c r="F29">
-        <v>40.27788162231445</v>
-      </c>
-      <c r="G29">
+      <c r="F29" t="n">
+        <v>40.27788543701172</v>
+      </c>
+      <c r="G29" t="n">
         <v>92600</v>
       </c>
-      <c r="H29">
+      <c r="H29" t="n">
         <v>-0.0198148091634115</v>
       </c>
-      <c r="I29">
+      <c r="I29" t="n">
         <v>0.143459397040042</v>
       </c>
-      <c r="J29">
+      <c r="J29" t="n">
         <v>0.4062168215585127</v>
       </c>
-      <c r="K29">
+      <c r="K29" t="n">
         <v>0.4062168215585127</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="2">
+    <row r="30">
+      <c r="A30" s="2" t="n">
         <v>40360</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="n">
         <v>61.52999877929688</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="n">
         <v>61.93999862670898</v>
       </c>
-      <c r="D30">
+      <c r="D30" t="n">
         <v>60.61999893188477</v>
       </c>
-      <c r="E30">
+      <c r="E30" t="n">
         <v>61.79000091552734</v>
       </c>
-      <c r="F30">
+      <c r="F30" t="n">
         <v>47.02003860473633</v>
       </c>
-      <c r="G30">
+      <c r="G30" t="n">
         <v>171200</v>
       </c>
-      <c r="H30">
+      <c r="H30" t="n">
         <v>0.1673909041992805</v>
       </c>
-      <c r="I30">
+      <c r="I30" t="n">
         <v>0.1436857363786637</v>
       </c>
-      <c r="J30">
+      <c r="J30" t="n">
         <v>0.3728061146353439</v>
       </c>
-      <c r="K30">
+      <c r="K30" t="n">
         <v>0.3728061146353439</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="2">
+    <row r="31">
+      <c r="A31" s="2" t="n">
         <v>40391</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="n">
         <v>60.04000091552734</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="n">
         <v>61.20000076293945</v>
       </c>
-      <c r="D31">
+      <c r="D31" t="n">
         <v>60.0099983215332</v>
       </c>
-      <c r="E31">
+      <c r="E31" t="n">
         <v>60.45999908447266</v>
       </c>
-      <c r="F31">
-        <v>46.00794982910156</v>
-      </c>
-      <c r="G31">
+      <c r="F31" t="n">
+        <v>46.00795364379883</v>
+      </c>
+      <c r="G31" t="n">
         <v>243000</v>
       </c>
-      <c r="H31">
+      <c r="H31" t="n">
         <v>-0.02152454784509428</v>
       </c>
-      <c r="I31">
+      <c r="I31" t="n">
         <v>0.1413136049261134</v>
       </c>
-      <c r="J31">
+      <c r="J31" t="n">
         <v>0.2489154983483173</v>
       </c>
-      <c r="K31">
+      <c r="K31" t="n">
         <v>0.2489154983483173</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="2">
+    <row r="32">
+      <c r="A32" s="2" t="n">
         <v>40422</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="n">
         <v>70.11000061035156</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="n">
         <v>70.62000274658203</v>
       </c>
-      <c r="D32">
+      <c r="D32" t="n">
         <v>69.30000305175781</v>
       </c>
-      <c r="E32">
+      <c r="E32" t="n">
         <v>70.02999877929688</v>
       </c>
-      <c r="F32">
-        <v>53.29039001464844</v>
-      </c>
-      <c r="G32">
+      <c r="F32" t="n">
+        <v>53.29038238525391</v>
+      </c>
+      <c r="G32" t="n">
         <v>225100</v>
       </c>
-      <c r="H32">
+      <c r="H32" t="n">
         <v>0.1582864677429674</v>
       </c>
-      <c r="I32">
+      <c r="I32" t="n">
         <v>0.1411593124735669</v>
       </c>
-      <c r="J32">
+      <c r="J32" t="n">
         <v>0.392800327754427</v>
       </c>
-      <c r="K32">
+      <c r="K32" t="n">
         <v>0.392800327754427</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="2">
+    <row r="33">
+      <c r="A33" s="2" t="n">
         <v>40452</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="n">
         <v>74.08999633789062</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="n">
         <v>74.22000122070312</v>
       </c>
-      <c r="D33">
+      <c r="D33" t="n">
         <v>73.76000213623047</v>
       </c>
-      <c r="E33">
+      <c r="E33" t="n">
         <v>73.98999786376953</v>
       </c>
-      <c r="F33">
-        <v>56.30381393432617</v>
-      </c>
-      <c r="G33">
+      <c r="F33" t="n">
+        <v>56.30380249023438</v>
+      </c>
+      <c r="G33" t="n">
         <v>213300</v>
       </c>
-      <c r="H33">
+      <c r="H33" t="n">
         <v>0.05654718197201158</v>
       </c>
-      <c r="I33">
+      <c r="I33" t="n">
         <v>0.1389111604271765</v>
       </c>
-      <c r="J33">
+      <c r="J33" t="n">
         <v>0.5433875674445101</v>
       </c>
-      <c r="K33">
+      <c r="K33" t="n">
         <v>0.5433875674445101</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="2">
+    <row r="34">
+      <c r="A34" s="2" t="n">
         <v>40483</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="n">
         <v>65.41999816894531</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="n">
         <v>67.09999847412109</v>
       </c>
-      <c r="D34">
+      <c r="D34" t="n">
         <v>65.23000335693359</v>
       </c>
-      <c r="E34">
+      <c r="E34" t="n">
         <v>66.94000244140625</v>
       </c>
-      <c r="F34">
-        <v>50.93901824951172</v>
-      </c>
-      <c r="G34">
+      <c r="F34" t="n">
+        <v>50.93900299072266</v>
+      </c>
+      <c r="G34" t="n">
         <v>527000</v>
       </c>
-      <c r="H34">
+      <c r="H34" t="n">
         <v>-0.09528308725381696</v>
       </c>
-      <c r="I34">
+      <c r="I34" t="n">
         <v>0.1382932295167554</v>
       </c>
-      <c r="J34">
+      <c r="J34" t="n">
         <v>0.4558504373171313</v>
       </c>
-      <c r="K34">
+      <c r="K34" t="n">
         <v>0.4558504373171313</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="2">
+    <row r="35">
+      <c r="A35" s="2" t="n">
         <v>40513</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="n">
         <v>66.44000244140625</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="n">
         <v>66.44000244140625</v>
       </c>
-      <c r="D35">
+      <c r="D35" t="n">
         <v>65.62000274658203</v>
       </c>
-      <c r="E35">
+      <c r="E35" t="n">
         <v>66.20999908447266</v>
       </c>
-      <c r="F35">
-        <v>50.63845062255859</v>
-      </c>
-      <c r="G35">
+      <c r="F35" t="n">
+        <v>50.63844299316406</v>
+      </c>
+      <c r="G35" t="n">
         <v>99700</v>
       </c>
-      <c r="H35">
+      <c r="H35" t="n">
         <v>-0.01090533806855742</v>
       </c>
-      <c r="I35">
+      <c r="I35" t="n">
         <v>0.1362293493307461</v>
       </c>
-      <c r="J35">
+      <c r="J35" t="n">
         <v>0.2283858480538887</v>
       </c>
-      <c r="K35">
+      <c r="K35" t="n">
         <v>0.2283858480538887</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="2">
+    <row r="36">
+      <c r="A36" s="2" t="n">
         <v>40544</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="n">
         <v>59.43999862670898</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="n">
         <v>60.04000091552734</v>
       </c>
-      <c r="D36">
+      <c r="D36" t="n">
         <v>59.38999938964844</v>
       </c>
-      <c r="E36">
+      <c r="E36" t="n">
         <v>59.9900016784668</v>
       </c>
-      <c r="F36">
-        <v>45.88130187988281</v>
-      </c>
-      <c r="G36">
+      <c r="F36" t="n">
+        <v>45.88129043579102</v>
+      </c>
+      <c r="G36" t="n">
         <v>530600</v>
       </c>
-      <c r="H36">
+      <c r="H36" t="n">
         <v>-0.09394347518522395</v>
       </c>
-      <c r="I36">
+      <c r="I36" t="n">
         <v>0.1355688140850785</v>
       </c>
-      <c r="J36">
+      <c r="J36" t="n">
         <v>0.07760020929785716</v>
       </c>
-      <c r="K36">
+      <c r="K36" t="n">
         <v>0.07760020929785716</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="2">
+    <row r="37">
+      <c r="A37" s="2" t="n">
         <v>40575</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="n">
         <v>58.27000045776367</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="n">
         <v>58.77000045776367</v>
       </c>
-      <c r="D37">
+      <c r="D37" t="n">
         <v>58</v>
       </c>
-      <c r="E37">
+      <c r="E37" t="n">
         <v>58.7599983215332</v>
       </c>
-      <c r="F37">
-        <v>44.94056701660156</v>
-      </c>
-      <c r="G37">
+      <c r="F37" t="n">
+        <v>44.94057846069336</v>
+      </c>
+      <c r="G37" t="n">
         <v>319400</v>
       </c>
-      <c r="H37">
+      <c r="H37" t="n">
         <v>-0.02050347262075669</v>
       </c>
-      <c r="I37">
+      <c r="I37" t="n">
         <v>0.1337089686469058</v>
       </c>
-      <c r="J37">
+      <c r="J37" t="n">
         <v>0.1796827283976212</v>
       </c>
-      <c r="K37">
+      <c r="K37" t="n">
         <v>0.1796827283976212</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="2">
+    <row r="38">
+      <c r="A38" s="2" t="n">
         <v>40603</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="n">
         <v>63.54999923706055</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="n">
         <v>64.12000274658203</v>
       </c>
-      <c r="D38">
+      <c r="D38" t="n">
         <v>63.41999816894531</v>
       </c>
-      <c r="E38">
+      <c r="E38" t="n">
         <v>63.84000015258789</v>
       </c>
-      <c r="F38">
-        <v>48.82583618164062</v>
-      </c>
-      <c r="G38">
+      <c r="F38" t="n">
+        <v>48.82583999633789</v>
+      </c>
+      <c r="G38" t="n">
         <v>270300</v>
       </c>
-      <c r="H38">
+      <c r="H38" t="n">
         <v>0.08645340327031747</v>
       </c>
-      <c r="I38">
+      <c r="I38" t="n">
         <v>0.1323111475290064</v>
       </c>
-      <c r="J38">
+      <c r="J38" t="n">
         <v>0.1139416964373019</v>
       </c>
-      <c r="K38">
+      <c r="K38" t="n">
         <v>0.1139416964373019</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="2">
+    <row r="39">
+      <c r="A39" s="2" t="n">
         <v>40634</v>
       </c>
-      <c r="B39">
+      <c r="B39" t="n">
         <v>69.61000061035156</v>
       </c>
-      <c r="C39">
+      <c r="C39" t="n">
         <v>70.66000366210938</v>
       </c>
-      <c r="D39">
+      <c r="D39" t="n">
         <v>69.61000061035156</v>
       </c>
-      <c r="E39">
+      <c r="E39" t="n">
         <v>70.66000366210938</v>
       </c>
-      <c r="F39">
-        <v>54.04188537597656</v>
-      </c>
-      <c r="G39">
+      <c r="F39" t="n">
+        <v>54.0418815612793</v>
+      </c>
+      <c r="G39" t="n">
         <v>352000</v>
       </c>
-      <c r="H39">
+      <c r="H39" t="n">
         <v>0.1068296286532044</v>
       </c>
-      <c r="I39">
+      <c r="I39" t="n">
         <v>0.1312810146018987</v>
       </c>
-      <c r="J39">
+      <c r="J39" t="n">
         <v>0.1511893521099135</v>
       </c>
-      <c r="K39">
+      <c r="K39" t="n">
         <v>0.1511893521099135</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="2">
+    <row r="40">
+      <c r="A40" s="2" t="n">
         <v>40664</v>
       </c>
-      <c r="B40">
+      <c r="B40" t="n">
         <v>61.13000106811523</v>
       </c>
-      <c r="C40">
+      <c r="C40" t="n">
         <v>61.4900016784668</v>
       </c>
-      <c r="D40">
+      <c r="D40" t="n">
         <v>60.90999984741211</v>
       </c>
-      <c r="E40">
+      <c r="E40" t="n">
         <v>61.4900016784668</v>
       </c>
-      <c r="F40">
-        <v>47.02852249145508</v>
-      </c>
-      <c r="G40">
+      <c r="F40" t="n">
+        <v>47.02851867675781</v>
+      </c>
+      <c r="G40" t="n">
         <v>354300</v>
       </c>
-      <c r="H40">
+      <c r="H40" t="n">
         <v>-0.1297764153465489</v>
       </c>
-      <c r="I40">
+      <c r="I40" t="n">
         <v>0.1317574727949146</v>
       </c>
-      <c r="J40">
+      <c r="J40" t="n">
         <v>0.1387037347864222</v>
       </c>
-      <c r="K40">
+      <c r="K40" t="n">
         <v>0.1387037347864222</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="2">
+    <row r="41">
+      <c r="A41" s="2" t="n">
         <v>40695</v>
       </c>
-      <c r="B41">
+      <c r="B41" t="n">
         <v>59.52000045776367</v>
       </c>
-      <c r="C41">
+      <c r="C41" t="n">
         <v>60.04000091552734</v>
       </c>
-      <c r="D41">
+      <c r="D41" t="n">
         <v>59.36999893188477</v>
       </c>
-      <c r="E41">
+      <c r="E41" t="n">
         <v>59.59999847412109</v>
       </c>
-      <c r="F41">
-        <v>46.36412811279297</v>
-      </c>
-      <c r="G41">
+      <c r="F41" t="n">
+        <v>46.3641357421875</v>
+      </c>
+      <c r="G41" t="n">
         <v>331300</v>
       </c>
-      <c r="H41">
+      <c r="H41" t="n">
         <v>-0.03073675642795703</v>
       </c>
-      <c r="I41">
+      <c r="I41" t="n">
         <v>0.1302289182958135</v>
       </c>
-      <c r="J41">
+      <c r="J41" t="n">
         <v>0.1260154568390033</v>
       </c>
-      <c r="K41">
+      <c r="K41" t="n">
         <v>0.1260154568390033</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="2">
+    <row r="42">
+      <c r="A42" s="2" t="n">
         <v>40725</v>
       </c>
-      <c r="B42">
+      <c r="B42" t="n">
         <v>55.79000091552734</v>
       </c>
-      <c r="C42">
+      <c r="C42" t="n">
         <v>56.70999908447266</v>
       </c>
-      <c r="D42">
+      <c r="D42" t="n">
         <v>55.59000015258789</v>
       </c>
-      <c r="E42">
+      <c r="E42" t="n">
         <v>55.83000183105469</v>
       </c>
-      <c r="F42">
-        <v>43.43137359619141</v>
-      </c>
-      <c r="G42">
+      <c r="F42" t="n">
+        <v>43.43136978149414</v>
+      </c>
+      <c r="G42" t="n">
         <v>602900</v>
       </c>
-      <c r="H42">
+      <c r="H42" t="n">
         <v>-0.06325497885211151</v>
       </c>
-      <c r="I42">
+      <c r="I42" t="n">
         <v>0.1291418770076409</v>
       </c>
-      <c r="J42">
+      <c r="J42" t="n">
         <v>-0.09645572092838328</v>
       </c>
-      <c r="K42">
+      <c r="K42" t="n">
         <v>-0.09645572092838328</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="2">
+    <row r="43">
+      <c r="A43" s="2" t="n">
         <v>40756</v>
       </c>
-      <c r="B43">
+      <c r="B43" t="n">
         <v>48.72999954223633</v>
       </c>
-      <c r="C43">
+      <c r="C43" t="n">
         <v>49.54000091552734</v>
       </c>
-      <c r="D43">
+      <c r="D43" t="n">
         <v>48.72999954223633</v>
       </c>
-      <c r="E43">
+      <c r="E43" t="n">
         <v>49.43000030517578</v>
       </c>
-      <c r="F43">
+      <c r="F43" t="n">
         <v>38.45267486572266</v>
       </c>
-      <c r="G43">
+      <c r="G43" t="n">
         <v>140900</v>
       </c>
-      <c r="H43">
+      <c r="H43" t="n">
         <v>-0.1146337330463599</v>
       </c>
-      <c r="I43">
+      <c r="I43" t="n">
         <v>0.1290658709237924</v>
       </c>
-      <c r="J43">
+      <c r="J43" t="n">
         <v>-0.1824346501210847</v>
       </c>
-      <c r="K43">
+      <c r="K43" t="n">
         <v>-0.1824346501210847</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="2">
+    <row r="44">
+      <c r="A44" s="2" t="n">
         <v>40787</v>
       </c>
-      <c r="B44">
+      <c r="B44" t="n">
         <v>47.75</v>
       </c>
-      <c r="C44">
+      <c r="C44" t="n">
         <v>49.20999908447266</v>
       </c>
-      <c r="D44">
+      <c r="D44" t="n">
         <v>47.36999893188477</v>
       </c>
-      <c r="E44">
+      <c r="E44" t="n">
         <v>47.58000183105469</v>
       </c>
-      <c r="F44">
-        <v>37.01351547241211</v>
-      </c>
-      <c r="G44">
+      <c r="F44" t="n">
+        <v>37.01350784301758</v>
+      </c>
+      <c r="G44" t="n">
         <v>170200</v>
       </c>
-      <c r="H44">
+      <c r="H44" t="n">
         <v>-0.03742663286869097</v>
       </c>
-      <c r="I44">
+      <c r="I44" t="n">
         <v>0.1276910413067225</v>
       </c>
-      <c r="J44">
+      <c r="J44" t="n">
         <v>-0.3205768576263224</v>
       </c>
-      <c r="K44">
+      <c r="K44" t="n">
         <v>-0.3205768576263224</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="2">
+    <row r="45">
+      <c r="A45" s="2" t="n">
         <v>40817</v>
       </c>
-      <c r="B45">
+      <c r="B45" t="n">
         <v>48.97999954223633</v>
       </c>
-      <c r="C45">
+      <c r="C45" t="n">
         <v>49.20999908447266</v>
       </c>
-      <c r="D45">
+      <c r="D45" t="n">
         <v>47.83000183105469</v>
       </c>
-      <c r="E45">
+      <c r="E45" t="n">
         <v>47.83000183105469</v>
       </c>
-      <c r="F45">
+      <c r="F45" t="n">
         <v>37.20799255371094</v>
       </c>
-      <c r="G45">
+      <c r="G45" t="n">
         <v>371900</v>
       </c>
-      <c r="H45">
+      <c r="H45" t="n">
         <v>0.005254308330791879</v>
       </c>
-      <c r="I45">
+      <c r="I45" t="n">
         <v>0.1261628840538546</v>
       </c>
-      <c r="J45">
+      <c r="J45" t="n">
         <v>-0.3535612486552663</v>
       </c>
-      <c r="K45">
+      <c r="K45" t="n">
         <v>-0.3535612486552663</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="2">
+    <row r="46">
+      <c r="A46" s="2" t="n">
         <v>40848</v>
       </c>
-      <c r="B46">
+      <c r="B46" t="n">
         <v>44.4900016784668</v>
       </c>
-      <c r="C46">
+      <c r="C46" t="n">
         <v>45.5</v>
       </c>
-      <c r="D46">
+      <c r="D46" t="n">
         <v>44.34000015258789</v>
       </c>
-      <c r="E46">
+      <c r="E46" t="n">
         <v>45.5</v>
       </c>
-      <c r="F46">
-        <v>35.39543533325195</v>
-      </c>
-      <c r="G46">
+      <c r="F46" t="n">
+        <v>35.39543914794922</v>
+      </c>
+      <c r="G46" t="n">
         <v>310600</v>
       </c>
-      <c r="H46">
+      <c r="H46" t="n">
         <v>-0.04871423252887863</v>
       </c>
-      <c r="I46">
+      <c r="I46" t="n">
         <v>0.1249870699655718</v>
       </c>
-      <c r="J46">
+      <c r="J46" t="n">
         <v>-0.320286848811711</v>
       </c>
-      <c r="K46">
+      <c r="K46" t="n">
         <v>-0.320286848811711</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="2">
+    <row r="47">
+      <c r="A47" s="2" t="n">
         <v>40878</v>
       </c>
-      <c r="B47">
+      <c r="B47" t="n">
         <v>41.79000091552734</v>
       </c>
-      <c r="C47">
+      <c r="C47" t="n">
         <v>42.06000137329102</v>
       </c>
-      <c r="D47">
+      <c r="D47" t="n">
         <v>40.95999908447266</v>
       </c>
-      <c r="E47">
+      <c r="E47" t="n">
         <v>41.13999938964844</v>
       </c>
-      <c r="F47">
-        <v>32.12223052978516</v>
-      </c>
-      <c r="G47">
+      <c r="F47" t="n">
+        <v>32.12222671508789</v>
+      </c>
+      <c r="G47" t="n">
         <v>206200</v>
       </c>
-      <c r="H47">
+      <c r="H47" t="n">
         <v>-0.09582418923849589</v>
       </c>
-      <c r="I47">
+      <c r="I47" t="n">
         <v>0.1245125953036598</v>
       </c>
-      <c r="J47">
+      <c r="J47" t="n">
         <v>-0.3786437100359898</v>
       </c>
-      <c r="K47">
+      <c r="K47" t="n">
         <v>-0.3786437100359898</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="2">
+    <row r="48">
+      <c r="A48" s="2" t="n">
         <v>40909</v>
       </c>
-      <c r="B48">
+      <c r="B48" t="n">
         <v>49.11000061035156</v>
       </c>
-      <c r="C48">
+      <c r="C48" t="n">
         <v>49.2599983215332</v>
       </c>
-      <c r="D48">
+      <c r="D48" t="n">
         <v>48.16999816894531</v>
       </c>
-      <c r="E48">
+      <c r="E48" t="n">
         <v>48.36000061035156</v>
       </c>
-      <c r="F48">
+      <c r="F48" t="n">
         <v>37.75962066650391</v>
       </c>
-      <c r="G48">
+      <c r="G48" t="n">
         <v>345200</v>
       </c>
-      <c r="H48">
+      <c r="H48" t="n">
         <v>0.175498330768566</v>
       </c>
-      <c r="I48">
+      <c r="I48" t="n">
         <v>0.1256591648229824</v>
       </c>
-      <c r="J48">
+      <c r="J48" t="n">
         <v>-0.1938656566547452</v>
       </c>
-      <c r="K48">
+      <c r="K48" t="n">
         <v>-0.1938656566547452</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
-      <c r="A49" s="2">
+    <row r="49">
+      <c r="A49" s="2" t="n">
         <v>40940</v>
       </c>
-      <c r="B49">
+      <c r="B49" t="n">
         <v>52.20999908447266</v>
       </c>
-      <c r="C49">
+      <c r="C49" t="n">
         <v>52.63999938964844</v>
       </c>
-      <c r="D49">
+      <c r="D49" t="n">
         <v>51.65000152587891</v>
       </c>
-      <c r="E49">
+      <c r="E49" t="n">
         <v>51.70999908447266</v>
       </c>
-      <c r="F49">
+      <c r="F49" t="n">
         <v>40.37530136108398</v>
       </c>
-      <c r="G49">
+      <c r="G49" t="n">
         <v>1157500</v>
       </c>
-      <c r="H49">
+      <c r="H49" t="n">
         <v>0.06927209329695549</v>
       </c>
-      <c r="I49">
+      <c r="I49" t="n">
         <v>0.1245985786726827</v>
       </c>
-      <c r="J49">
+      <c r="J49" t="n">
         <v>-0.1199795683873769</v>
       </c>
-      <c r="K49">
+      <c r="K49" t="n">
         <v>-0.1199795683873769</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
-      <c r="A50" s="2">
+    <row r="50">
+      <c r="A50" s="2" t="n">
         <v>40969</v>
       </c>
-      <c r="B50">
+      <c r="B50" t="n">
         <v>52.63000106811523</v>
       </c>
-      <c r="C50">
+      <c r="C50" t="n">
         <v>53.09999847412109</v>
       </c>
-      <c r="D50">
+      <c r="D50" t="n">
         <v>52.56999969482422</v>
       </c>
-      <c r="E50">
+      <c r="E50" t="n">
         <v>53.04999923706055</v>
       </c>
-      <c r="F50">
-        <v>41.42158126831055</v>
-      </c>
-      <c r="G50">
+      <c r="F50" t="n">
+        <v>41.42158508300781</v>
+      </c>
+      <c r="G50" t="n">
         <v>337200</v>
       </c>
-      <c r="H50">
+      <c r="H50" t="n">
         <v>0.02591375316791034</v>
       </c>
-      <c r="I50">
+      <c r="I50" t="n">
         <v>0.1232871426244205</v>
       </c>
-      <c r="J50">
+      <c r="J50" t="n">
         <v>-0.169016304663808</v>
       </c>
-      <c r="K50">
+      <c r="K50" t="n">
         <v>-0.169016304663808</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
-      <c r="A51" s="2">
+    <row r="51">
+      <c r="A51" s="2" t="n">
         <v>41000</v>
       </c>
-      <c r="B51">
+      <c r="B51" t="n">
         <v>52.27999877929688</v>
       </c>
-      <c r="C51">
+      <c r="C51" t="n">
         <v>52.27999877929688</v>
       </c>
-      <c r="D51">
+      <c r="D51" t="n">
         <v>51.70000076293945</v>
       </c>
-      <c r="E51">
+      <c r="E51" t="n">
         <v>51.79000091552734</v>
       </c>
-      <c r="F51">
-        <v>40.43777465820312</v>
-      </c>
-      <c r="G51">
+      <c r="F51" t="n">
+        <v>40.43777084350586</v>
+      </c>
+      <c r="G51" t="n">
         <v>194000</v>
       </c>
-      <c r="H51">
+      <c r="H51" t="n">
         <v>-0.02375114683607715</v>
       </c>
-      <c r="I51">
+      <c r="I51" t="n">
         <v>0.1220936640636539</v>
       </c>
-      <c r="J51">
+      <c r="J51" t="n">
         <v>-0.2670535206425535</v>
       </c>
-      <c r="K51">
+      <c r="K51" t="n">
         <v>-0.2670535206425535</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
-      <c r="A52" s="2">
+    <row r="52">
+      <c r="A52" s="2" t="n">
         <v>41030</v>
       </c>
-      <c r="B52">
+      <c r="B52" t="n">
         <v>45.95000076293945</v>
       </c>
-      <c r="C52">
+      <c r="C52" t="n">
         <v>46.2599983215332</v>
       </c>
-      <c r="D52">
+      <c r="D52" t="n">
         <v>45.29999923706055</v>
       </c>
-      <c r="E52">
+      <c r="E52" t="n">
         <v>46.22000122070312</v>
       </c>
-      <c r="F52">
-        <v>36.08870697021484</v>
-      </c>
-      <c r="G52">
+      <c r="F52" t="n">
+        <v>36.08869934082031</v>
+      </c>
+      <c r="G52" t="n">
         <v>553900</v>
       </c>
-      <c r="H52">
+      <c r="H52" t="n">
         <v>-0.1075497122293786</v>
       </c>
-      <c r="I52">
+      <c r="I52" t="n">
         <v>0.1219738167238347</v>
       </c>
-      <c r="J52">
+      <c r="J52" t="n">
         <v>-0.2483330629524292</v>
       </c>
-      <c r="K52">
+      <c r="K52" t="n">
         <v>-0.2483330629524292</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
-      <c r="A53" s="2">
+    <row r="53">
+      <c r="A53" s="2" t="n">
         <v>41061</v>
       </c>
-      <c r="B53">
+      <c r="B53" t="n">
         <v>51.95000076293945</v>
       </c>
-      <c r="C53">
+      <c r="C53" t="n">
         <v>52.4900016784668</v>
       </c>
-      <c r="D53">
+      <c r="D53" t="n">
         <v>51.68000030517578</v>
       </c>
-      <c r="E53">
+      <c r="E53" t="n">
         <v>52.34000015258789</v>
       </c>
-      <c r="F53">
-        <v>41.69291687011719</v>
-      </c>
-      <c r="G53">
+      <c r="F53" t="n">
+        <v>41.69291305541992</v>
+      </c>
+      <c r="G53" t="n">
         <v>521100</v>
       </c>
-      <c r="H53">
+      <c r="H53" t="n">
         <v>0.1324101854230038</v>
       </c>
-      <c r="I53">
+      <c r="I53" t="n">
         <v>0.1220109886660617</v>
       </c>
-      <c r="J53">
+      <c r="J53" t="n">
         <v>-0.1218120554933498</v>
       </c>
-      <c r="K53">
+      <c r="K53" t="n">
         <v>-0.1218120554933498</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
-      <c r="A54" s="2">
+    <row r="54">
+      <c r="A54" s="2" t="n">
         <v>41091</v>
       </c>
-      <c r="B54">
+      <c r="B54" t="n">
         <v>54.38000106811523</v>
       </c>
-      <c r="C54">
+      <c r="C54" t="n">
         <v>54.45999908447266</v>
       </c>
-      <c r="D54">
+      <c r="D54" t="n">
         <v>53.86000061035156</v>
       </c>
-      <c r="E54">
+      <c r="E54" t="n">
         <v>53.95999908447266</v>
       </c>
-      <c r="F54">
-        <v>42.98337554931641</v>
-      </c>
-      <c r="G54">
+      <c r="F54" t="n">
+        <v>42.98336791992188</v>
+      </c>
+      <c r="G54" t="n">
         <v>217500</v>
       </c>
-      <c r="H54">
+      <c r="H54" t="n">
         <v>0.03095145065269289</v>
       </c>
-      <c r="I54">
+      <c r="I54" t="n">
         <v>0.1208444452143316</v>
       </c>
-      <c r="J54">
+      <c r="J54" t="n">
         <v>-0.03349458508421299</v>
       </c>
-      <c r="K54">
+      <c r="K54" t="n">
         <v>-0.03349458508421299</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
-      <c r="A55" s="2">
+    <row r="55">
+      <c r="A55" s="2" t="n">
         <v>41122</v>
       </c>
-      <c r="B55">
+      <c r="B55" t="n">
         <v>55.79000091552734</v>
       </c>
-      <c r="C55">
+      <c r="C55" t="n">
         <v>56.11000061035156</v>
       </c>
-      <c r="D55">
+      <c r="D55" t="n">
         <v>55.52000045776367</v>
       </c>
-      <c r="E55">
+      <c r="E55" t="n">
         <v>55.72999954223633</v>
       </c>
-      <c r="F55">
-        <v>44.39332580566406</v>
-      </c>
-      <c r="G55">
+      <c r="F55" t="n">
+        <v>44.3933219909668</v>
+      </c>
+      <c r="G55" t="n">
         <v>329600</v>
       </c>
-      <c r="H55">
+      <c r="H55" t="n">
         <v>0.03280208465149892</v>
       </c>
-      <c r="I55">
+      <c r="I55" t="n">
         <v>0.1197170380830679</v>
       </c>
-      <c r="J55">
+      <c r="J55" t="n">
         <v>0.127452947565547</v>
       </c>
-      <c r="K55">
+      <c r="K55" t="n">
         <v>0.127452947565547</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
-      <c r="A56" s="2">
+    <row r="56">
+      <c r="A56" s="2" t="n">
         <v>41153</v>
       </c>
-      <c r="B56">
+      <c r="B56" t="n">
         <v>56</v>
       </c>
-      <c r="C56">
+      <c r="C56" t="n">
         <v>56.02999877929688</v>
       </c>
-      <c r="D56">
+      <c r="D56" t="n">
         <v>55.54999923706055</v>
       </c>
-      <c r="E56">
+      <c r="E56" t="n">
         <v>55.88000106811523</v>
       </c>
-      <c r="F56">
-        <v>44.51281356811523</v>
-      </c>
-      <c r="G56">
+      <c r="F56" t="n">
+        <v>44.51280975341797</v>
+      </c>
+      <c r="G56" t="n">
         <v>249700</v>
       </c>
-      <c r="H56">
+      <c r="H56" t="n">
         <v>0.002691575939548052</v>
       </c>
-      <c r="I56">
+      <c r="I56" t="n">
         <v>0.1185871917871793</v>
       </c>
-      <c r="J56">
+      <c r="J56" t="n">
         <v>0.1744430205474115</v>
       </c>
-      <c r="K56">
+      <c r="K56" t="n">
         <v>0.1744430205474115</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
-      <c r="A57" s="2">
+    <row r="57">
+      <c r="A57" s="2" t="n">
         <v>41183</v>
       </c>
-      <c r="B57">
+      <c r="B57" t="n">
         <v>61.22999954223633</v>
       </c>
-      <c r="C57">
+      <c r="C57" t="n">
         <v>61.40000152587891</v>
       </c>
-      <c r="D57">
+      <c r="D57" t="n">
         <v>60.45999908447266</v>
       </c>
-      <c r="E57">
+      <c r="E57" t="n">
         <v>60.56999969482422</v>
       </c>
-      <c r="F57">
-        <v>48.24876022338867</v>
-      </c>
-      <c r="G57">
+      <c r="F57" t="n">
+        <v>48.24875259399414</v>
+      </c>
+      <c r="G57" t="n">
         <v>378100</v>
       </c>
-      <c r="H57">
+      <c r="H57" t="n">
         <v>0.08392982349789291</v>
       </c>
-      <c r="I57">
+      <c r="I57" t="n">
         <v>0.1179005577050146</v>
       </c>
-      <c r="J57">
+      <c r="J57" t="n">
         <v>0.2663599702289328</v>
       </c>
-      <c r="K57">
+      <c r="K57" t="n">
         <v>0.2663599702289328</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
-      <c r="A58" s="2">
+    <row r="58">
+      <c r="A58" s="2" t="n">
         <v>41214</v>
       </c>
-      <c r="B58">
+      <c r="B58" t="n">
         <v>61.77000045776367</v>
       </c>
-      <c r="C58">
+      <c r="C58" t="n">
         <v>61.97000122070312</v>
       </c>
-      <c r="D58">
+      <c r="D58" t="n">
         <v>61.52000045776367</v>
       </c>
-      <c r="E58">
+      <c r="E58" t="n">
         <v>61.79000091552734</v>
       </c>
-      <c r="F58">
-        <v>49.22058486938477</v>
-      </c>
-      <c r="G58">
+      <c r="F58" t="n">
+        <v>49.2205924987793</v>
+      </c>
+      <c r="G58" t="n">
         <v>362200</v>
       </c>
-      <c r="H58">
+      <c r="H58" t="n">
         <v>0.02014200473584249</v>
       </c>
-      <c r="I58">
+      <c r="I58" t="n">
         <v>0.1168290955441349</v>
       </c>
-      <c r="J58">
+      <c r="J58" t="n">
         <v>0.358021998143458</v>
       </c>
-      <c r="K58">
+      <c r="K58" t="n">
         <v>0.358021998143458</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
-      <c r="A59" s="2">
+    <row r="59">
+      <c r="A59" s="2" t="n">
         <v>41244</v>
       </c>
-      <c r="B59">
+      <c r="B59" t="n">
         <v>65.98000335693359</v>
       </c>
-      <c r="C59">
+      <c r="C59" t="n">
         <v>66.86000061035156</v>
       </c>
-      <c r="D59">
+      <c r="D59" t="n">
         <v>65.69999694824219</v>
       </c>
-      <c r="E59">
+      <c r="E59" t="n">
         <v>66.77999877929688</v>
       </c>
-      <c r="F59">
-        <v>53.19551467895508</v>
-      </c>
-      <c r="G59">
+      <c r="F59" t="n">
+        <v>53.19551849365234</v>
+      </c>
+      <c r="G59" t="n">
         <v>146400</v>
       </c>
-      <c r="H59">
+      <c r="H59" t="n">
         <v>0.0807573683417051</v>
       </c>
-      <c r="I59">
+      <c r="I59" t="n">
         <v>0.1161391072457808</v>
       </c>
-      <c r="J59">
+      <c r="J59" t="n">
         <v>0.6232377192523713</v>
       </c>
-      <c r="K59">
+      <c r="K59" t="n">
         <v>0.6232377192523713</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
-      <c r="A60" s="2">
+    <row r="60">
+      <c r="A60" s="2" t="n">
         <v>41275</v>
       </c>
-      <c r="B60">
+      <c r="B60" t="n">
         <v>68.55000305175781</v>
       </c>
-      <c r="C60">
+      <c r="C60" t="n">
         <v>68.76999664306641</v>
       </c>
-      <c r="D60">
+      <c r="D60" t="n">
         <v>67.26999664306641</v>
       </c>
-      <c r="E60">
+      <c r="E60" t="n">
         <v>67.62000274658203</v>
       </c>
-      <c r="F60">
-        <v>53.86464691162109</v>
-      </c>
-      <c r="G60">
+      <c r="F60" t="n">
+        <v>53.86463928222656</v>
+      </c>
+      <c r="G60" t="n">
         <v>793400</v>
       </c>
-      <c r="H60">
+      <c r="H60" t="n">
         <v>0.01257867599041607</v>
       </c>
-      <c r="I60">
+      <c r="I60" t="n">
         <v>0.1151158629571794</v>
       </c>
-      <c r="J60">
+      <c r="J60" t="n">
         <v>0.3982630664423075</v>
       </c>
-      <c r="K60">
+      <c r="K60" t="n">
         <v>0.3982630664423075</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
-      <c r="A61" s="2">
+    <row r="61">
+      <c r="A61" s="2" t="n">
         <v>41306</v>
       </c>
-      <c r="B61">
+      <c r="B61" t="n">
         <v>65.62999725341797</v>
       </c>
-      <c r="C61">
+      <c r="C61" t="n">
         <v>66.30000305175781</v>
       </c>
-      <c r="D61">
+      <c r="D61" t="n">
         <v>65.62999725341797</v>
       </c>
-      <c r="E61">
+      <c r="E61" t="n">
         <v>65.91000366210938</v>
       </c>
-      <c r="F61">
-        <v>52.50249099731445</v>
-      </c>
-      <c r="G61">
+      <c r="F61" t="n">
+        <v>52.50249481201172</v>
+      </c>
+      <c r="G61" t="n">
         <v>317000</v>
       </c>
-      <c r="H61">
+      <c r="H61" t="n">
         <v>-0.02528836165359505</v>
       </c>
-      <c r="I61">
+      <c r="I61" t="n">
         <v>0.1142289889395148</v>
       </c>
-      <c r="J61">
+      <c r="J61" t="n">
         <v>0.2746084863478688</v>
       </c>
-      <c r="K61">
+      <c r="K61" t="n">
         <v>0.2746084863478688</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
-      <c r="A62" s="2">
+    <row r="62">
+      <c r="A62" s="2" t="n">
         <v>41334</v>
       </c>
-      <c r="B62">
+      <c r="B62" t="n">
         <v>70.72000122070312</v>
       </c>
-      <c r="C62">
+      <c r="C62" t="n">
         <v>71.25</v>
       </c>
-      <c r="D62">
+      <c r="D62" t="n">
         <v>70.65000152587891</v>
       </c>
-      <c r="E62">
+      <c r="E62" t="n">
         <v>71.19000244140625</v>
       </c>
-      <c r="F62">
-        <v>56.70842742919922</v>
-      </c>
-      <c r="G62">
+      <c r="F62" t="n">
+        <v>56.70843124389648</v>
+      </c>
+      <c r="G62" t="n">
         <v>414600</v>
       </c>
-      <c r="H62">
+      <c r="H62" t="n">
         <v>0.08010921690074579</v>
       </c>
-      <c r="I62">
+      <c r="I62" t="n">
         <v>0.1135923994950182</v>
       </c>
-      <c r="J62">
+      <c r="J62" t="n">
         <v>0.341941629881743</v>
       </c>
-      <c r="K62">
+      <c r="K62" t="n">
         <v>0.341941629881743</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
-      <c r="A63" s="2">
+    <row r="63">
+      <c r="A63" s="2" t="n">
         <v>41365</v>
       </c>
-      <c r="B63">
+      <c r="B63" t="n">
         <v>72.76000213623047</v>
       </c>
-      <c r="C63">
+      <c r="C63" t="n">
         <v>73.33000183105469</v>
       </c>
-      <c r="D63">
+      <c r="D63" t="n">
         <v>72.69999694824219</v>
       </c>
-      <c r="E63">
+      <c r="E63" t="n">
         <v>73.20999908447266</v>
       </c>
-      <c r="F63">
-        <v>58.3175048828125</v>
-      </c>
-      <c r="G63">
+      <c r="F63" t="n">
+        <v>58.31750869750977</v>
+      </c>
+      <c r="G63" t="n">
         <v>276600</v>
       </c>
-      <c r="H63">
+      <c r="H63" t="n">
         <v>0.02837472360994764</v>
       </c>
-      <c r="I63">
+      <c r="I63" t="n">
         <v>0.112657593143674</v>
       </c>
-      <c r="J63">
+      <c r="J63" t="n">
         <v>0.4135933151243352</v>
       </c>
-      <c r="K63">
+      <c r="K63" t="n">
         <v>0.4135933151243352</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
-      <c r="A64" s="2">
+    <row r="64">
+      <c r="A64" s="2" t="n">
         <v>41395</v>
       </c>
-      <c r="B64">
+      <c r="B64" t="n">
         <v>69.44000244140625</v>
       </c>
-      <c r="C64">
+      <c r="C64" t="n">
         <v>70.19999694824219</v>
       </c>
-      <c r="D64">
+      <c r="D64" t="n">
         <v>69.08999633789062</v>
       </c>
-      <c r="E64">
+      <c r="E64" t="n">
         <v>69.30000305175781</v>
       </c>
-      <c r="F64">
-        <v>55.20290374755859</v>
-      </c>
-      <c r="G64">
+      <c r="F64" t="n">
+        <v>55.20288467407227</v>
+      </c>
+      <c r="G64" t="n">
         <v>497200</v>
       </c>
-      <c r="H64">
+      <c r="H64" t="n">
         <v>-0.05340795084839889</v>
       </c>
-      <c r="I64">
+      <c r="I64" t="n">
         <v>0.1120567963846829</v>
       </c>
-      <c r="J64">
+      <c r="J64" t="n">
         <v>0.4993509567610432</v>
       </c>
-      <c r="K64">
+      <c r="K64" t="n">
         <v>0.4993509567610432</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
-      <c r="A65" s="2">
+    <row r="65">
+      <c r="A65" s="2" t="n">
         <v>41426</v>
       </c>
-      <c r="B65">
+      <c r="B65" t="n">
         <v>57.95000076293945</v>
       </c>
-      <c r="C65">
+      <c r="C65" t="n">
         <v>59.77999877929688</v>
       </c>
-      <c r="D65">
+      <c r="D65" t="n">
         <v>57.7599983215332</v>
       </c>
-      <c r="E65">
+      <c r="E65" t="n">
         <v>59.40000152587891</v>
       </c>
-      <c r="F65">
-        <v>48.23653411865234</v>
-      </c>
-      <c r="G65">
+      <c r="F65" t="n">
+        <v>48.23653793334961</v>
+      </c>
+      <c r="G65" t="n">
         <v>619200</v>
       </c>
-      <c r="H65">
+      <c r="H65" t="n">
         <v>-0.1428571585846098</v>
       </c>
-      <c r="I65">
+      <c r="I65" t="n">
         <v>0.1128663854101974</v>
       </c>
-      <c r="J65">
+      <c r="J65" t="n">
         <v>0.1348873013509524</v>
       </c>
-      <c r="K65">
+      <c r="K65" t="n">
         <v>0.1348873013509524</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
-      <c r="A66" s="2">
+    <row r="66">
+      <c r="A66" s="2" t="n">
         <v>41456</v>
       </c>
-      <c r="B66">
+      <c r="B66" t="n">
         <v>56.38000106811523</v>
       </c>
-      <c r="C66">
+      <c r="C66" t="n">
         <v>57.09999847412109</v>
       </c>
-      <c r="D66">
+      <c r="D66" t="n">
         <v>56.08000183105469</v>
       </c>
-      <c r="E66">
+      <c r="E66" t="n">
         <v>56.15000152587891</v>
       </c>
-      <c r="F66">
-        <v>45.59733200073242</v>
-      </c>
-      <c r="G66">
+      <c r="F66" t="n">
+        <v>45.59734344482422</v>
+      </c>
+      <c r="G66" t="n">
         <v>440200</v>
       </c>
-      <c r="H66">
+      <c r="H66" t="n">
         <v>-0.05471380330830578</v>
       </c>
-      <c r="I66">
+      <c r="I66" t="n">
         <v>0.112261899626685</v>
       </c>
-      <c r="J66">
+      <c r="J66" t="n">
         <v>0.04058566491036952</v>
       </c>
-      <c r="K66">
+      <c r="K66" t="n">
         <v>0.04058566491036952</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
-      <c r="A67" s="2">
+    <row r="67">
+      <c r="A67" s="2" t="n">
         <v>41487</v>
       </c>
-      <c r="B67">
+      <c r="B67" t="n">
         <v>48.77000045776367</v>
       </c>
-      <c r="C67">
+      <c r="C67" t="n">
         <v>48.91999816894531</v>
       </c>
-      <c r="D67">
+      <c r="D67" t="n">
         <v>48.09000015258789</v>
       </c>
-      <c r="E67">
+      <c r="E67" t="n">
         <v>48.41999816894531</v>
       </c>
-      <c r="F67">
+      <c r="F67" t="n">
         <v>39.3200798034668</v>
       </c>
-      <c r="G67">
+      <c r="G67" t="n">
         <v>431100</v>
       </c>
-      <c r="H67">
+      <c r="H67" t="n">
         <v>-0.1376670195346463</v>
       </c>
-      <c r="I67">
+      <c r="I67" t="n">
         <v>0.1128636418090078</v>
       </c>
-      <c r="J67">
+      <c r="J67" t="n">
         <v>-0.131168157784587</v>
       </c>
-      <c r="K67">
+      <c r="K67" t="n">
         <v>-0.131168157784587</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
-      <c r="A68" s="2">
+    <row r="68">
+      <c r="A68" s="2" t="n">
         <v>41518</v>
       </c>
-      <c r="B68">
+      <c r="B68" t="n">
         <v>54.09000015258789</v>
       </c>
-      <c r="C68">
+      <c r="C68" t="n">
         <v>55.52999877929688</v>
       </c>
-      <c r="D68">
+      <c r="D68" t="n">
         <v>54</v>
       </c>
-      <c r="E68">
+      <c r="E68" t="n">
         <v>55.15999984741211</v>
       </c>
-      <c r="F68">
-        <v>44.79338836669922</v>
-      </c>
-      <c r="G68">
+      <c r="F68" t="n">
+        <v>44.79338455200195</v>
+      </c>
+      <c r="G68" t="n">
         <v>341000</v>
       </c>
-      <c r="H68">
+      <c r="H68" t="n">
         <v>0.1391987181608274</v>
       </c>
-      <c r="I68">
+      <c r="I68" t="n">
         <v>0.1131670965575402</v>
       </c>
-      <c r="J68">
+      <c r="J68" t="n">
         <v>-0.012884774641029</v>
       </c>
-      <c r="K68">
+      <c r="K68" t="n">
         <v>-0.012884774641029</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
-      <c r="A69" s="2">
+    <row r="69">
+      <c r="A69" s="2" t="n">
         <v>41548</v>
       </c>
-      <c r="B69">
+      <c r="B69" t="n">
         <v>58.86999893188477</v>
       </c>
-      <c r="C69">
+      <c r="C69" t="n">
         <v>59.06999969482422</v>
       </c>
-      <c r="D69">
+      <c r="D69" t="n">
         <v>57.72999954223633</v>
       </c>
-      <c r="E69">
+      <c r="E69" t="n">
         <v>57.75</v>
       </c>
-      <c r="F69">
-        <v>46.89663696289062</v>
-      </c>
-      <c r="G69">
+      <c r="F69" t="n">
+        <v>46.89663314819336</v>
+      </c>
+      <c r="G69" t="n">
         <v>265500</v>
       </c>
-      <c r="H69">
+      <c r="H69" t="n">
         <v>0.04695431761697888</v>
       </c>
-      <c r="I69">
+      <c r="I69" t="n">
         <v>0.1124018755009493</v>
       </c>
-      <c r="J69">
+      <c r="J69" t="n">
         <v>-0.04655769702876833</v>
       </c>
-      <c r="K69">
+      <c r="K69" t="n">
         <v>-0.04655769702876833</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
-      <c r="A70" s="2">
+    <row r="70">
+      <c r="A70" s="2" t="n">
         <v>41579</v>
       </c>
-      <c r="B70">
+      <c r="B70" t="n">
         <v>55.79999923706055</v>
       </c>
-      <c r="C70">
+      <c r="C70" t="n">
         <v>56.72999954223633</v>
       </c>
-      <c r="D70">
+      <c r="D70" t="n">
         <v>55.79999923706055</v>
       </c>
-      <c r="E70">
+      <c r="E70" t="n">
         <v>56.02000045776367</v>
       </c>
-      <c r="F70">
-        <v>45.49176406860352</v>
-      </c>
-      <c r="G70">
+      <c r="F70" t="n">
+        <v>45.49176025390625</v>
+      </c>
+      <c r="G70" t="n">
         <v>84100</v>
       </c>
-      <c r="H70">
+      <c r="H70" t="n">
         <v>-0.02995670203006628</v>
       </c>
-      <c r="I70">
+      <c r="I70" t="n">
         <v>0.1116631212798562</v>
       </c>
-      <c r="J70">
+      <c r="J70" t="n">
         <v>-0.09338081198043346</v>
       </c>
-      <c r="K70">
+      <c r="K70" t="n">
         <v>-0.09338081198043346</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
-      <c r="A71" s="2">
+    <row r="71">
+      <c r="A71" s="2" t="n">
         <v>41609</v>
       </c>
-      <c r="B71">
+      <c r="B71" t="n">
         <v>47.79999923706055</v>
       </c>
-      <c r="C71">
+      <c r="C71" t="n">
         <v>47.86000061035156</v>
       </c>
-      <c r="D71">
+      <c r="D71" t="n">
         <v>47.06000137329102</v>
       </c>
-      <c r="E71">
+      <c r="E71" t="n">
         <v>47.65999984741211</v>
       </c>
-      <c r="F71">
-        <v>38.70291519165039</v>
-      </c>
-      <c r="G71">
+      <c r="F71" t="n">
+        <v>38.70291137695312</v>
+      </c>
+      <c r="G71" t="n">
         <v>370300</v>
       </c>
-      <c r="H71">
+      <c r="H71" t="n">
         <v>-0.1492324266697319</v>
       </c>
-      <c r="I71">
+      <c r="I71" t="n">
         <v>0.1124648983254548</v>
       </c>
-      <c r="J71">
+      <c r="J71" t="n">
         <v>-0.2863132566844602</v>
       </c>
-      <c r="K71">
+      <c r="K71" t="n">
         <v>-0.2863132566844602</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
-      <c r="A72" s="2">
+    <row r="72">
+      <c r="A72" s="2" t="n">
         <v>41640</v>
       </c>
-      <c r="B72">
+      <c r="B72" t="n">
         <v>41.20999908447266</v>
       </c>
-      <c r="C72">
+      <c r="C72" t="n">
         <v>41.79000091552734</v>
       </c>
-      <c r="D72">
+      <c r="D72" t="n">
         <v>41</v>
       </c>
-      <c r="E72">
+      <c r="E72" t="n">
         <v>41.56000137329102</v>
       </c>
-      <c r="F72">
-        <v>33.74932861328125</v>
-      </c>
-      <c r="G72">
+      <c r="F72" t="n">
+        <v>33.74933242797852</v>
+      </c>
+      <c r="G72" t="n">
         <v>466000</v>
       </c>
-      <c r="H72">
+      <c r="H72" t="n">
         <v>-0.1279898970551994</v>
       </c>
-      <c r="I72">
+      <c r="I72" t="n">
         <v>0.1128024756502623</v>
       </c>
-      <c r="J72">
+      <c r="J72" t="n">
         <v>-0.3853889428392291</v>
       </c>
-      <c r="K72">
+      <c r="K72" t="n">
         <v>-0.3853889428392291</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
-      <c r="A73" s="2">
+    <row r="73">
+      <c r="A73" s="2" t="n">
         <v>41671</v>
       </c>
-      <c r="B73">
+      <c r="B73" t="n">
         <v>42.91999816894531</v>
       </c>
-      <c r="C73">
+      <c r="C73" t="n">
         <v>43.04999923706055</v>
       </c>
-      <c r="D73">
+      <c r="D73" t="n">
         <v>42.13999938964844</v>
       </c>
-      <c r="E73">
+      <c r="E73" t="n">
         <v>42.68000030517578</v>
       </c>
-      <c r="F73">
-        <v>34.65885162353516</v>
-      </c>
-      <c r="G73">
+      <c r="F73" t="n">
+        <v>34.65884399414062</v>
+      </c>
+      <c r="G73" t="n">
         <v>391800</v>
       </c>
-      <c r="H73">
+      <c r="H73" t="n">
         <v>0.02694896282184778</v>
       </c>
-      <c r="I73">
+      <c r="I73" t="n">
         <v>0.112024619069386</v>
       </c>
-      <c r="J73">
+      <c r="J73" t="n">
         <v>-0.3524503423793338</v>
       </c>
-      <c r="K73">
+      <c r="K73" t="n">
         <v>-0.3524503423793338</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
-      <c r="A74" s="2">
+    <row r="74">
+      <c r="A74" s="2" t="n">
         <v>41699</v>
       </c>
-      <c r="B74">
+      <c r="B74" t="n">
         <v>48.29999923706055</v>
       </c>
-      <c r="C74">
+      <c r="C74" t="n">
         <v>49.15999984741211</v>
       </c>
-      <c r="D74">
+      <c r="D74" t="n">
         <v>48.06000137329102</v>
       </c>
-      <c r="E74">
+      <c r="E74" t="n">
         <v>48.68000030517578</v>
       </c>
-      <c r="F74">
-        <v>39.53121948242188</v>
-      </c>
-      <c r="G74">
+      <c r="F74" t="n">
+        <v>39.53122711181641</v>
+      </c>
+      <c r="G74" t="n">
         <v>747600</v>
       </c>
-      <c r="H74">
+      <c r="H74" t="n">
         <v>0.14058106741092</v>
       </c>
-      <c r="I74">
+      <c r="I74" t="n">
         <v>0.1123723974139003</v>
       </c>
-      <c r="J74">
+      <c r="J74" t="n">
         <v>-0.316196114120906</v>
       </c>
-      <c r="K74">
+      <c r="K74" t="n">
         <v>-0.316196114120906</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
-      <c r="A75" s="2">
+    <row r="75">
+      <c r="A75" s="2" t="n">
         <v>41730</v>
       </c>
-      <c r="B75">
+      <c r="B75" t="n">
         <v>52.90999984741211</v>
       </c>
-      <c r="C75">
+      <c r="C75" t="n">
         <v>53.29999923706055</v>
       </c>
-      <c r="D75">
+      <c r="D75" t="n">
         <v>52.52000045776367</v>
       </c>
-      <c r="E75">
+      <c r="E75" t="n">
         <v>53.20999908447266</v>
       </c>
-      <c r="F75">
-        <v>43.20986938476562</v>
-      </c>
-      <c r="G75">
+      <c r="F75" t="n">
+        <v>43.20986175537109</v>
+      </c>
+      <c r="G75" t="n">
         <v>393200</v>
       </c>
-      <c r="H75">
+      <c r="H75" t="n">
         <v>0.09305667113595373</v>
       </c>
-      <c r="I75">
+      <c r="I75" t="n">
         <v>0.112042757522787</v>
       </c>
-      <c r="J75">
+      <c r="J75" t="n">
         <v>-0.2731867265415916</v>
       </c>
-      <c r="K75">
+      <c r="K75" t="n">
         <v>-0.2731867265415916</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
-      <c r="A76" s="2">
+    <row r="76">
+      <c r="A76" s="2" t="n">
         <v>41760</v>
       </c>
-      <c r="B76">
+      <c r="B76" t="n">
         <v>57.90000152587891</v>
       </c>
-      <c r="C76">
+      <c r="C76" t="n">
         <v>57.90000152587891</v>
       </c>
-      <c r="D76">
+      <c r="D76" t="n">
         <v>57.25</v>
       </c>
-      <c r="E76">
+      <c r="E76" t="n">
         <v>57.31000137329102</v>
       </c>
-      <c r="F76">
-        <v>46.53932952880859</v>
-      </c>
-      <c r="G76">
+      <c r="F76" t="n">
+        <v>46.53932571411133</v>
+      </c>
+      <c r="G76" t="n">
         <v>366300</v>
       </c>
-      <c r="H76">
+      <c r="H76" t="n">
         <v>0.07705322983203722</v>
       </c>
-      <c r="I76">
+      <c r="I76" t="n">
         <v>0.1115602243281539</v>
       </c>
-      <c r="J76">
+      <c r="J76" t="n">
         <v>-0.1730158896170881</v>
       </c>
-      <c r="K76">
+      <c r="K76" t="n">
         <v>-0.1730158896170881</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
-      <c r="A77" s="2">
+    <row r="77">
+      <c r="A77" s="2" t="n">
         <v>41791</v>
       </c>
-      <c r="B77">
+      <c r="B77" t="n">
         <v>55.65999984741211</v>
       </c>
-      <c r="C77">
+      <c r="C77" t="n">
         <v>55.75</v>
       </c>
-      <c r="D77">
+      <c r="D77" t="n">
         <v>55.43999862670898</v>
       </c>
-      <c r="E77">
+      <c r="E77" t="n">
         <v>55.56000137329102</v>
       </c>
-      <c r="F77">
+      <c r="F77" t="n">
         <v>45.8444938659668</v>
       </c>
-      <c r="G77">
+      <c r="G77" t="n">
         <v>168900</v>
       </c>
-      <c r="H77">
+      <c r="H77" t="n">
         <v>-0.03053568239514259</v>
       </c>
-      <c r="I77">
+      <c r="I77" t="n">
         <v>0.1108984839995815</v>
       </c>
-      <c r="J77">
+      <c r="J77" t="n">
         <v>-0.06464646555463316</v>
       </c>
-      <c r="K77">
+      <c r="K77" t="n">
         <v>-0.06464646555463316</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
-      <c r="A78" s="2">
+    <row r="78">
+      <c r="A78" s="2" t="n">
         <v>41821</v>
       </c>
-      <c r="B78">
+      <c r="B78" t="n">
         <v>57.79999923706055</v>
       </c>
-      <c r="C78">
+      <c r="C78" t="n">
         <v>57.84000015258789</v>
       </c>
-      <c r="D78">
+      <c r="D78" t="n">
         <v>57.20000076293945</v>
       </c>
-      <c r="E78">
+      <c r="E78" t="n">
         <v>57.40000152587891</v>
       </c>
-      <c r="F78">
-        <v>47.36274337768555</v>
-      </c>
-      <c r="G78">
+      <c r="F78" t="n">
+        <v>47.36274719238281</v>
+      </c>
+      <c r="G78" t="n">
         <v>413300</v>
       </c>
-      <c r="H78">
+      <c r="H78" t="n">
         <v>0.03311735253974302</v>
       </c>
-      <c r="I78">
+      <c r="I78" t="n">
         <v>0.1101925792587564</v>
       </c>
-      <c r="J78">
+      <c r="J78" t="n">
         <v>0.02226179814837392</v>
       </c>
-      <c r="K78">
+      <c r="K78" t="n">
         <v>0.02226179814837392</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
-      <c r="A79" s="2">
+    <row r="79">
+      <c r="A79" s="2" t="n">
         <v>41852</v>
       </c>
-      <c r="B79">
+      <c r="B79" t="n">
         <v>56.02000045776367</v>
       </c>
-      <c r="C79">
+      <c r="C79" t="n">
         <v>56.04999923706055</v>
       </c>
-      <c r="D79">
+      <c r="D79" t="n">
         <v>55.43000030517578</v>
       </c>
-      <c r="E79">
+      <c r="E79" t="n">
         <v>55.47000122070312</v>
       </c>
-      <c r="F79">
+      <c r="F79" t="n">
         <v>45.77023696899414</v>
       </c>
-      <c r="G79">
+      <c r="G79" t="n">
         <v>188400</v>
       </c>
-      <c r="H79">
+      <c r="H79" t="n">
         <v>-0.03362369780261476</v>
       </c>
-      <c r="I79">
+      <c r="I79" t="n">
         <v>0.1095725464499917</v>
       </c>
-      <c r="J79">
+      <c r="J79" t="n">
         <v>0.1456010598587631</v>
       </c>
-      <c r="K79">
+      <c r="K79" t="n">
         <v>0.1456010598587631</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
-      <c r="A80" s="2">
+    <row r="80">
+      <c r="A80" s="2" t="n">
         <v>41883</v>
       </c>
-      <c r="B80">
+      <c r="B80" t="n">
         <v>48.79999923706055</v>
       </c>
-      <c r="C80">
+      <c r="C80" t="n">
         <v>49.20999908447266</v>
       </c>
-      <c r="D80">
+      <c r="D80" t="n">
         <v>48.59000015258789</v>
       </c>
-      <c r="E80">
+      <c r="E80" t="n">
         <v>49.08000183105469</v>
       </c>
-      <c r="F80">
-        <v>40.49762344360352</v>
-      </c>
-      <c r="G80">
+      <c r="F80" t="n">
+        <v>40.49761962890625</v>
+      </c>
+      <c r="G80" t="n">
         <v>229000</v>
       </c>
-      <c r="H80">
+      <c r="H80" t="n">
         <v>-0.1151973904637934</v>
       </c>
-      <c r="I80">
+      <c r="I80" t="n">
         <v>0.1097541276190397</v>
       </c>
-      <c r="J80">
+      <c r="J80" t="n">
         <v>-0.1102247649234298</v>
       </c>
-      <c r="K80">
+      <c r="K80" t="n">
         <v>-0.1102247649234298</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
-      <c r="A81" s="2">
+    <row r="81">
+      <c r="A81" s="2" t="n">
         <v>41913</v>
       </c>
-      <c r="B81">
+      <c r="B81" t="n">
         <v>53.90000152587891</v>
       </c>
-      <c r="C81">
+      <c r="C81" t="n">
         <v>54.41999816894531</v>
       </c>
-      <c r="D81">
+      <c r="D81" t="n">
         <v>53.7400016784668</v>
       </c>
-      <c r="E81">
+      <c r="E81" t="n">
         <v>54.04999923706055</v>
       </c>
-      <c r="F81">
+      <c r="F81" t="n">
         <v>44.59854125976562</v>
       </c>
-      <c r="G81">
+      <c r="G81" t="n">
         <v>342500</v>
       </c>
-      <c r="H81">
+      <c r="H81" t="n">
         <v>0.1012631870535334</v>
       </c>
-      <c r="I81">
+      <c r="I81" t="n">
         <v>0.1095651598304802</v>
       </c>
-      <c r="J81">
+      <c r="J81" t="n">
         <v>-0.06406927728033684</v>
       </c>
-      <c r="K81">
+      <c r="K81" t="n">
         <v>-0.06406927728033684</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
-      <c r="A82" s="2">
+    <row r="82">
+      <c r="A82" s="2" t="n">
         <v>41944</v>
       </c>
-      <c r="B82">
+      <c r="B82" t="n">
         <v>57.9900016784668</v>
       </c>
-      <c r="C82">
+      <c r="C82" t="n">
         <v>58.59000015258789</v>
       </c>
-      <c r="D82">
+      <c r="D82" t="n">
         <v>57.47999954223633</v>
       </c>
-      <c r="E82">
+      <c r="E82" t="n">
         <v>57.68000030517578</v>
       </c>
-      <c r="F82">
-        <v>47.59378051757812</v>
-      </c>
-      <c r="G82">
+      <c r="F82" t="n">
+        <v>47.59378433227539</v>
+      </c>
+      <c r="G82" t="n">
         <v>356100</v>
       </c>
-      <c r="H82">
+      <c r="H82" t="n">
         <v>0.06716005771238276</v>
       </c>
-      <c r="I82">
+      <c r="I82" t="n">
         <v>0.1090703751780008</v>
       </c>
-      <c r="J82">
+      <c r="J82" t="n">
         <v>0.02963227122184109</v>
       </c>
-      <c r="K82">
+      <c r="K82" t="n">
         <v>0.02963227122184109</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
-      <c r="A83" s="2">
+    <row r="83">
+      <c r="A83" s="2" t="n">
         <v>41974</v>
       </c>
-      <c r="B83">
+      <c r="B83" t="n">
         <v>54.09000015258789</v>
       </c>
-      <c r="C83">
+      <c r="C83" t="n">
         <v>54.56000137329102</v>
       </c>
-      <c r="D83">
+      <c r="D83" t="n">
         <v>54.02000045776367</v>
       </c>
-      <c r="E83">
+      <c r="E83" t="n">
         <v>54.31000137329102</v>
       </c>
-      <c r="F83">
-        <v>44.81307220458984</v>
-      </c>
-      <c r="G83">
+      <c r="F83" t="n">
+        <v>44.81307983398438</v>
+      </c>
+      <c r="G83" t="n">
         <v>145100</v>
       </c>
-      <c r="H83">
+      <c r="H83" t="n">
         <v>-0.05842577867639798</v>
       </c>
-      <c r="I83">
+      <c r="I83" t="n">
         <v>0.108643007910985</v>
       </c>
-      <c r="J83">
+      <c r="J83" t="n">
         <v>0.1395300366590326</v>
       </c>
-      <c r="K83">
+      <c r="K83" t="n">
         <v>0.1395300366590326</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
-      <c r="A84" s="2">
+    <row r="84">
+      <c r="A84" s="2" t="n">
         <v>42005</v>
       </c>
-      <c r="B84">
+      <c r="B84" t="n">
         <v>53.84000015258789</v>
       </c>
-      <c r="C84">
+      <c r="C84" t="n">
         <v>54.40999984741211</v>
       </c>
-      <c r="D84">
+      <c r="D84" t="n">
         <v>53.31000137329102</v>
       </c>
-      <c r="E84">
+      <c r="E84" t="n">
         <v>53.38000106811523</v>
       </c>
-      <c r="F84">
+      <c r="F84" t="n">
         <v>44.04570770263672</v>
       </c>
-      <c r="G84">
+      <c r="G84" t="n">
         <v>413200</v>
       </c>
-      <c r="H84">
+      <c r="H84" t="n">
         <v>-0.01712392343324709</v>
       </c>
-      <c r="I84">
+      <c r="I84" t="n">
         <v>0.108005621618313</v>
       </c>
-      <c r="J84">
+      <c r="J84" t="n">
         <v>0.2844080679559473</v>
       </c>
-      <c r="K84">
+      <c r="K84" t="n">
         <v>0.2844080679559473</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
-      <c r="A85" s="2">
+    <row r="85">
+      <c r="A85" s="2" t="n">
         <v>42036</v>
       </c>
-      <c r="B85">
+      <c r="B85" t="n">
         <v>49.65999984741211</v>
       </c>
-      <c r="C85">
+      <c r="C85" t="n">
         <v>50.0099983215332</v>
       </c>
-      <c r="D85">
+      <c r="D85" t="n">
         <v>49.36000061035156</v>
       </c>
-      <c r="E85">
+      <c r="E85" t="n">
         <v>49.59000015258789</v>
       </c>
-      <c r="F85">
-        <v>40.91844940185547</v>
-      </c>
-      <c r="G85">
+      <c r="F85" t="n">
+        <v>40.91843414306641</v>
+      </c>
+      <c r="G85" t="n">
         <v>880300</v>
       </c>
-      <c r="H85">
+      <c r="H85" t="n">
         <v>-0.0710003904025992</v>
       </c>
-      <c r="I85">
+      <c r="I85" t="n">
         <v>0.1076910514503205</v>
       </c>
-      <c r="J85">
+      <c r="J85" t="n">
         <v>0.1619025257264146</v>
       </c>
-      <c r="K85">
+      <c r="K85" t="n">
         <v>0.1619025257264146</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
-      <c r="A86" s="2">
+    <row r="86">
+      <c r="A86" s="2" t="n">
         <v>42064</v>
       </c>
-      <c r="B86">
+      <c r="B86" t="n">
         <v>46.02999877929688</v>
       </c>
-      <c r="C86">
+      <c r="C86" t="n">
         <v>46.59000015258789</v>
       </c>
-      <c r="D86">
+      <c r="D86" t="n">
         <v>45.90999984741211</v>
       </c>
-      <c r="E86">
+      <c r="E86" t="n">
         <v>46.40000152587891</v>
       </c>
-      <c r="F86">
+      <c r="F86" t="n">
         <v>38.28625869750977</v>
       </c>
-      <c r="G86">
+      <c r="G86" t="n">
         <v>433300</v>
       </c>
-      <c r="H86">
+      <c r="H86" t="n">
         <v>-0.06432745748927993</v>
       </c>
-      <c r="I86">
+      <c r="I86" t="n">
         <v>0.1073200371262464</v>
       </c>
-      <c r="J86">
+      <c r="J86" t="n">
         <v>-0.04683645778561052</v>
       </c>
-      <c r="K86">
+      <c r="K86" t="n">
         <v>-0.04683645778561052</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
-      <c r="A87" s="2">
+    <row r="87">
+      <c r="A87" s="2" t="n">
         <v>42095</v>
       </c>
-      <c r="B87">
+      <c r="B87" t="n">
         <v>47.47999954223633</v>
       </c>
-      <c r="C87">
+      <c r="C87" t="n">
         <v>47.65999984741211</v>
       </c>
-      <c r="D87">
+      <c r="D87" t="n">
         <v>46.90000152587891</v>
       </c>
-      <c r="E87">
+      <c r="E87" t="n">
         <v>46.90000152587891</v>
       </c>
-      <c r="F87">
-        <v>38.69882202148438</v>
-      </c>
-      <c r="G87">
+      <c r="F87" t="n">
+        <v>38.69883728027344</v>
+      </c>
+      <c r="G87" t="n">
         <v>251100</v>
       </c>
-      <c r="H87">
+      <c r="H87" t="n">
         <v>0.01077586171459788</v>
       </c>
-      <c r="I87">
+      <c r="I87" t="n">
         <v>0.1066806832404827</v>
       </c>
-      <c r="J87">
+      <c r="J87" t="n">
         <v>-0.118586687975251</v>
       </c>
-      <c r="K87">
+      <c r="K87" t="n">
         <v>-0.118586687975251</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
-      <c r="A88" s="2">
+    <row r="88">
+      <c r="A88" s="2" t="n">
         <v>42125</v>
       </c>
-      <c r="B88">
+      <c r="B88" t="n">
         <v>48.04999923706055</v>
       </c>
-      <c r="C88">
+      <c r="C88" t="n">
         <v>48.09000015258789</v>
       </c>
-      <c r="D88">
+      <c r="D88" t="n">
         <v>46.70000076293945</v>
       </c>
-      <c r="E88">
+      <c r="E88" t="n">
         <v>46.79999923706055</v>
       </c>
-      <c r="F88">
+      <c r="F88" t="n">
         <v>38.61631393432617</v>
       </c>
-      <c r="G88">
+      <c r="G88" t="n">
         <v>319600</v>
       </c>
-      <c r="H88">
+      <c r="H88" t="n">
         <v>-0.002132244894772151</v>
       </c>
-      <c r="I88">
+      <c r="I88" t="n">
         <v>0.106054788533838</v>
       </c>
-      <c r="J88">
+      <c r="J88" t="n">
         <v>-0.183388621259545</v>
       </c>
-      <c r="K88">
+      <c r="K88" t="n">
         <v>-0.183388621259545</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
-      <c r="A89" s="2">
+    <row r="89">
+      <c r="A89" s="2" t="n">
         <v>42156</v>
       </c>
-      <c r="B89">
+      <c r="B89" t="n">
         <v>45.27999877929688</v>
       </c>
-      <c r="C89">
+      <c r="C89" t="n">
         <v>45.33000183105469</v>
       </c>
-      <c r="D89">
+      <c r="D89" t="n">
         <v>44.93999862670898</v>
       </c>
-      <c r="E89">
+      <c r="E89" t="n">
         <v>45.13999938964844</v>
       </c>
-      <c r="F89">
-        <v>38.13217163085938</v>
-      </c>
-      <c r="G89">
+      <c r="F89" t="n">
+        <v>38.13216018676758</v>
+      </c>
+      <c r="G89" t="n">
         <v>329900</v>
       </c>
-      <c r="H89">
+      <c r="H89" t="n">
         <v>-0.03547008278789821</v>
       </c>
-      <c r="I89">
+      <c r="I89" t="n">
         <v>0.1055290057954084</v>
       </c>
-      <c r="J89">
+      <c r="J89" t="n">
         <v>-0.1875450274673988</v>
       </c>
-      <c r="K89">
+      <c r="K89" t="n">
         <v>-0.1875450274673988</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
-      <c r="A90" s="2">
+    <row r="90">
+      <c r="A90" s="2" t="n">
         <v>42186</v>
       </c>
-      <c r="B90">
+      <c r="B90" t="n">
         <v>42.40999984741211</v>
       </c>
-      <c r="C90">
+      <c r="C90" t="n">
         <v>43.06999969482422</v>
       </c>
-      <c r="D90">
+      <c r="D90" t="n">
         <v>42.40999984741211</v>
       </c>
-      <c r="E90">
+      <c r="E90" t="n">
         <v>42.97999954223633</v>
       </c>
-      <c r="F90">
+      <c r="F90" t="n">
         <v>36.3074951171875</v>
       </c>
-      <c r="G90">
+      <c r="G90" t="n">
         <v>436600</v>
       </c>
-      <c r="H90">
+      <c r="H90" t="n">
         <v>-0.04785112708502703</v>
       </c>
-      <c r="I90">
+      <c r="I90" t="n">
         <v>0.1050735578357874</v>
       </c>
-      <c r="J90">
+      <c r="J90" t="n">
         <v>-0.2512195400751216</v>
       </c>
-      <c r="K90">
+      <c r="K90" t="n">
         <v>-0.2512195400751216</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
-      <c r="A91" s="2">
+    <row r="91">
+      <c r="A91" s="2" t="n">
         <v>42217</v>
       </c>
-      <c r="B91">
+      <c r="B91" t="n">
         <v>38.09000015258789</v>
       </c>
-      <c r="C91">
+      <c r="C91" t="n">
         <v>38.4900016784668</v>
       </c>
-      <c r="D91">
+      <c r="D91" t="n">
         <v>37.84999847412109</v>
       </c>
-      <c r="E91">
+      <c r="E91" t="n">
         <v>38.2400016784668</v>
       </c>
-      <c r="F91">
-        <v>32.30336761474609</v>
-      </c>
-      <c r="G91">
+      <c r="F91" t="n">
+        <v>32.30336380004883</v>
+      </c>
+      <c r="G91" t="n">
         <v>338100</v>
       </c>
-      <c r="H91">
+      <c r="H91" t="n">
         <v>-0.1102838044265577</v>
       </c>
-      <c r="I91">
+      <c r="I91" t="n">
         <v>0.1051831748394929</v>
       </c>
-      <c r="J91">
+      <c r="J91" t="n">
         <v>-0.3106183371743926</v>
       </c>
-      <c r="K91">
+      <c r="K91" t="n">
         <v>-0.3106183371743926</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
-      <c r="A92" s="2">
+    <row r="92">
+      <c r="A92" s="2" t="n">
         <v>42248</v>
       </c>
-      <c r="B92">
+      <c r="B92" t="n">
         <v>36.34999847412109</v>
       </c>
-      <c r="C92">
+      <c r="C92" t="n">
         <v>36.59000015258789</v>
       </c>
-      <c r="D92">
+      <c r="D92" t="n">
         <v>36.06000137329102</v>
       </c>
-      <c r="E92">
+      <c r="E92" t="n">
         <v>36.54000091552734</v>
       </c>
-      <c r="F92">
+      <c r="F92" t="n">
         <v>30.86728477478027</v>
       </c>
-      <c r="G92">
+      <c r="G92" t="n">
         <v>477700</v>
       </c>
-      <c r="H92">
+      <c r="H92" t="n">
         <v>-0.04445608494564302</v>
       </c>
-      <c r="I92">
+      <c r="I92" t="n">
         <v>0.1047121183665369</v>
       </c>
-      <c r="J92">
+      <c r="J92" t="n">
         <v>-0.2555012316155382</v>
       </c>
-      <c r="K92">
+      <c r="K92" t="n">
         <v>-0.2555012316155382</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
-      <c r="A93" s="2">
+    <row r="93">
+      <c r="A93" s="2" t="n">
         <v>42278</v>
       </c>
-      <c r="B93">
+      <c r="B93" t="n">
         <v>40</v>
       </c>
-      <c r="C93">
+      <c r="C93" t="n">
         <v>40.58000183105469</v>
       </c>
-      <c r="D93">
+      <c r="D93" t="n">
         <v>39.83000183105469</v>
       </c>
-      <c r="E93">
+      <c r="E93" t="n">
         <v>40.2599983215332</v>
       </c>
-      <c r="F93">
-        <v>34.009765625</v>
-      </c>
-      <c r="G93">
+      <c r="F93" t="n">
+        <v>34.00976943969727</v>
+      </c>
+      <c r="G93" t="n">
         <v>446700</v>
       </c>
-      <c r="H93">
+      <c r="H93" t="n">
         <v>0.1018061661959369</v>
       </c>
-      <c r="I93">
+      <c r="I93" t="n">
         <v>0.1046440992923849</v>
       </c>
-      <c r="J93">
+      <c r="J93" t="n">
         <v>-0.2551341555999862</v>
       </c>
-      <c r="K93">
+      <c r="K93" t="n">
         <v>-0.2551341555999862</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
-      <c r="A94" s="2">
+    <row r="94">
+      <c r="A94" s="2" t="n">
         <v>42309</v>
       </c>
-      <c r="B94">
+      <c r="B94" t="n">
         <v>38.56000137329102</v>
       </c>
-      <c r="C94">
+      <c r="C94" t="n">
         <v>38.81000137329102</v>
       </c>
-      <c r="D94">
+      <c r="D94" t="n">
         <v>38.06999969482422</v>
       </c>
-      <c r="E94">
+      <c r="E94" t="n">
         <v>38.31000137329102</v>
       </c>
-      <c r="F94">
-        <v>32.36249923706055</v>
-      </c>
-      <c r="G94">
+      <c r="F94" t="n">
+        <v>32.36249542236328</v>
+      </c>
+      <c r="G94" t="n">
         <v>290500</v>
       </c>
-      <c r="H94">
+      <c r="H94" t="n">
         <v>-0.04843509760404596</v>
       </c>
-      <c r="I94">
+      <c r="I94" t="n">
         <v>0.1042107352348708</v>
       </c>
-      <c r="J94">
+      <c r="J94" t="n">
         <v>-0.3358182876109771</v>
       </c>
-      <c r="K94">
+      <c r="K94" t="n">
         <v>-0.3358182876109771</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
-      <c r="A95" s="2">
+    <row r="95">
+      <c r="A95" s="2" t="n">
         <v>42339</v>
       </c>
-      <c r="B95">
+      <c r="B95" t="n">
         <v>36.86999893188477</v>
       </c>
-      <c r="C95">
+      <c r="C95" t="n">
         <v>37.02999877929688</v>
       </c>
-      <c r="D95">
+      <c r="D95" t="n">
         <v>36.33000183105469</v>
       </c>
-      <c r="E95">
+      <c r="E95" t="n">
         <v>36.36000061035156</v>
       </c>
-      <c r="F95">
-        <v>30.72439384460449</v>
-      </c>
-      <c r="G95">
+      <c r="F95" t="n">
+        <v>30.72439575195312</v>
+      </c>
+      <c r="G95" t="n">
         <v>323500</v>
       </c>
-      <c r="H95">
+      <c r="H95" t="n">
         <v>-0.05090056625001727</v>
       </c>
-      <c r="I95">
+      <c r="I95" t="n">
         <v>0.1037955338033298</v>
       </c>
-      <c r="J95">
+      <c r="J95" t="n">
         <v>-0.3305100406748847</v>
       </c>
-      <c r="K95">
+      <c r="K95" t="n">
         <v>-0.3305100406748847</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
-      <c r="A96" s="2">
+    <row r="96">
+      <c r="A96" s="2" t="n">
         <v>42370</v>
       </c>
-      <c r="B96">
+      <c r="B96" t="n">
         <v>36.63000106811523</v>
       </c>
-      <c r="C96">
+      <c r="C96" t="n">
         <v>37.22999954223633</v>
       </c>
-      <c r="D96">
+      <c r="D96" t="n">
         <v>36.5099983215332</v>
       </c>
-      <c r="E96">
+      <c r="E96" t="n">
         <v>37.18999862670898</v>
       </c>
-      <c r="F96">
-        <v>31.42574310302734</v>
-      </c>
-      <c r="G96">
+      <c r="F96" t="n">
+        <v>31.42574691772461</v>
+      </c>
+      <c r="G96" t="n">
         <v>424700</v>
       </c>
-      <c r="H96">
+      <c r="H96" t="n">
         <v>0.02282722778946056</v>
       </c>
-      <c r="I96">
+      <c r="I96" t="n">
         <v>0.1032566631338045</v>
       </c>
-      <c r="J96">
+      <c r="J96" t="n">
         <v>-0.3032971546918311</v>
       </c>
-      <c r="K96">
+      <c r="K96" t="n">
         <v>-0.3032971546918311</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
-      <c r="A97" s="2">
+    <row r="97">
+      <c r="A97" s="2" t="n">
         <v>42401</v>
       </c>
-      <c r="B97">
+      <c r="B97" t="n">
         <v>37.61000061035156</v>
       </c>
-      <c r="C97">
+      <c r="C97" t="n">
         <v>37.9900016784668</v>
       </c>
-      <c r="D97">
+      <c r="D97" t="n">
         <v>37.47999954223633</v>
       </c>
-      <c r="E97">
+      <c r="E97" t="n">
         <v>37.47999954223633</v>
       </c>
-      <c r="F97">
-        <v>31.67079925537109</v>
-      </c>
-      <c r="G97">
+      <c r="F97" t="n">
+        <v>31.67080116271973</v>
+      </c>
+      <c r="G97" t="n">
         <v>341200</v>
       </c>
-      <c r="H97">
+      <c r="H97" t="n">
         <v>0.007797820011724133</v>
       </c>
-      <c r="I97">
+      <c r="I97" t="n">
         <v>0.1027071335626991</v>
       </c>
-      <c r="J97">
+      <c r="J97" t="n">
         <v>-0.2442024717299702</v>
       </c>
-      <c r="K97">
+      <c r="K97" t="n">
         <v>-0.2442024717299702</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
-      <c r="A98" s="2">
+    <row r="98">
+      <c r="A98" s="2" t="n">
         <v>42430</v>
       </c>
-      <c r="B98">
+      <c r="B98" t="n">
         <v>44</v>
       </c>
-      <c r="C98">
+      <c r="C98" t="n">
         <v>44.18999862670898</v>
       </c>
-      <c r="D98">
+      <c r="D98" t="n">
         <v>43.63999938964844</v>
       </c>
-      <c r="E98">
+      <c r="E98" t="n">
         <v>43.84000015258789</v>
       </c>
-      <c r="F98">
+      <c r="F98" t="n">
         <v>37.0450325012207</v>
       </c>
-      <c r="G98">
+      <c r="G98" t="n">
         <v>179700</v>
       </c>
-      <c r="H98">
+      <c r="H98" t="n">
         <v>0.1696905199581034</v>
       </c>
-      <c r="I98">
+      <c r="I98" t="n">
         <v>0.1035710084662101</v>
       </c>
-      <c r="J98">
+      <c r="J98" t="n">
         <v>-0.05517244157552914</v>
       </c>
-      <c r="K98">
+      <c r="K98" t="n">
         <v>-0.05517244157552914</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
-      <c r="A99" s="2">
+    <row r="99">
+      <c r="A99" s="2" t="n">
         <v>42461</v>
       </c>
-      <c r="B99">
+      <c r="B99" t="n">
         <v>45.9900016784668</v>
       </c>
-      <c r="C99">
+      <c r="C99" t="n">
         <v>46.04000091552734</v>
       </c>
-      <c r="D99">
+      <c r="D99" t="n">
         <v>45.58000183105469</v>
       </c>
-      <c r="E99">
+      <c r="E99" t="n">
         <v>45.95999908447266</v>
       </c>
-      <c r="F99">
+      <c r="F99" t="n">
         <v>38.83644104003906</v>
       </c>
-      <c r="G99">
+      <c r="G99" t="n">
         <v>234500</v>
       </c>
-      <c r="H99">
+      <c r="H99" t="n">
         <v>0.04835763970132234</v>
       </c>
-      <c r="I99">
+      <c r="I99" t="n">
         <v>0.1031250744423674</v>
       </c>
-      <c r="J99">
+      <c r="J99" t="n">
         <v>-0.02004269532672764</v>
       </c>
-      <c r="K99">
+      <c r="K99" t="n">
         <v>-0.02004269532672764</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
-      <c r="A100" s="2">
+    <row r="100">
+      <c r="A100" s="2" t="n">
         <v>42491</v>
       </c>
-      <c r="B100">
+      <c r="B100" t="n">
         <v>40.25</v>
       </c>
-      <c r="C100">
+      <c r="C100" t="n">
         <v>40.29000091552734</v>
       </c>
-      <c r="D100">
+      <c r="D100" t="n">
         <v>39.54000091552734</v>
       </c>
-      <c r="E100">
+      <c r="E100" t="n">
         <v>39.65999984741211</v>
       </c>
-      <c r="F100">
+      <c r="F100" t="n">
         <v>33.51290893554688</v>
       </c>
-      <c r="G100">
+      <c r="G100" t="n">
         <v>333700</v>
       </c>
-      <c r="H100">
+      <c r="H100" t="n">
         <v>-0.137075704146151</v>
       </c>
-      <c r="I100">
+      <c r="I100" t="n">
         <v>0.1035944956204404</v>
       </c>
-      <c r="J100">
+      <c r="J100" t="n">
         <v>-0.1525640920095214</v>
       </c>
-      <c r="K100">
+      <c r="K100" t="n">
         <v>-0.1525640920095214</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
-      <c r="A101" s="2">
+    <row r="101">
+      <c r="A101" s="2" t="n">
         <v>42522</v>
       </c>
-      <c r="B101">
+      <c r="B101" t="n">
         <v>39.47000122070312</v>
       </c>
-      <c r="C101">
+      <c r="C101" t="n">
         <v>39.81000137329102</v>
       </c>
-      <c r="D101">
+      <c r="D101" t="n">
         <v>39.31000137329102</v>
       </c>
-      <c r="E101">
+      <c r="E101" t="n">
         <v>39.65000152587891</v>
       </c>
-      <c r="F101">
-        <v>34.25400543212891</v>
-      </c>
-      <c r="G101">
+      <c r="F101" t="n">
+        <v>34.25400161743164</v>
+      </c>
+      <c r="G101" t="n">
         <v>365700</v>
       </c>
-      <c r="H101">
+      <c r="H101" t="n">
         <v>-0.0002521008969155192</v>
       </c>
-      <c r="I101">
+      <c r="I101" t="n">
         <v>0.1030653973964549</v>
       </c>
-      <c r="J101">
+      <c r="J101" t="n">
         <v>-0.1216215759415474</v>
       </c>
-      <c r="K101">
+      <c r="K101" t="n">
         <v>-0.1216215759415474</v>
       </c>
     </row>
-    <row r="102" spans="1:11">
-      <c r="A102" s="2">
+    <row r="102">
+      <c r="A102" s="2" t="n">
         <v>42552</v>
       </c>
-      <c r="B102">
+      <c r="B102" t="n">
         <v>37.40000152587891</v>
       </c>
-      <c r="C102">
+      <c r="C102" t="n">
         <v>37.84999847412109</v>
       </c>
-      <c r="D102">
+      <c r="D102" t="n">
         <v>37.15999984741211</v>
       </c>
-      <c r="E102">
+      <c r="E102" t="n">
         <v>37.84999847412109</v>
       </c>
-      <c r="F102">
-        <v>32.69896697998047</v>
-      </c>
-      <c r="G102">
+      <c r="F102" t="n">
+        <v>32.6989631652832</v>
+      </c>
+      <c r="G102" t="n">
         <v>292100</v>
       </c>
-      <c r="H102">
+      <c r="H102" t="n">
         <v>-0.04539730094544836</v>
       </c>
-      <c r="I102">
+      <c r="I102" t="n">
         <v>0.102661246293814</v>
       </c>
-      <c r="J102">
+      <c r="J102" t="n">
         <v>-0.1193578669788955</v>
       </c>
-      <c r="K102">
+      <c r="K102" t="n">
         <v>-0.1193578669788955</v>
       </c>
     </row>
-    <row r="103" spans="1:11">
-      <c r="A103" s="2">
+    <row r="103">
+      <c r="A103" s="2" t="n">
         <v>42583</v>
       </c>
-      <c r="B103">
+      <c r="B103" t="n">
         <v>38.2400016784668</v>
       </c>
-      <c r="C103">
+      <c r="C103" t="n">
         <v>38.2599983215332</v>
       </c>
-      <c r="D103">
+      <c r="D103" t="n">
         <v>37.79000091552734</v>
       </c>
-      <c r="E103">
+      <c r="E103" t="n">
         <v>37.97000122070312</v>
       </c>
-      <c r="F103">
-        <v>32.80264282226562</v>
-      </c>
-      <c r="G103">
+      <c r="F103" t="n">
+        <v>32.80263519287109</v>
+      </c>
+      <c r="G103" t="n">
         <v>198500</v>
       </c>
-      <c r="H103">
+      <c r="H103" t="n">
         <v>0.00317048220395777</v>
       </c>
-      <c r="I103">
+      <c r="I103" t="n">
         <v>0.1021466507031064</v>
       </c>
-      <c r="J103">
+      <c r="J103" t="n">
         <v>-0.007060681116960121</v>
       </c>
-      <c r="K103">
+      <c r="K103" t="n">
         <v>-0.007060681116960121</v>
       </c>
     </row>
-    <row r="104" spans="1:11">
-      <c r="A104" s="2">
+    <row r="104">
+      <c r="A104" s="2" t="n">
         <v>42614</v>
       </c>
-      <c r="B104">
+      <c r="B104" t="n">
         <v>37.86999893188477</v>
       </c>
-      <c r="C104">
+      <c r="C104" t="n">
         <v>38.0099983215332</v>
       </c>
-      <c r="D104">
+      <c r="D104" t="n">
         <v>37.72999954223633</v>
       </c>
-      <c r="E104">
+      <c r="E104" t="n">
         <v>37.86000061035156</v>
       </c>
-      <c r="F104">
-        <v>32.70761108398438</v>
-      </c>
-      <c r="G104">
+      <c r="F104" t="n">
+        <v>32.70760726928711</v>
+      </c>
+      <c r="G104" t="n">
         <v>282300</v>
       </c>
-      <c r="H104">
+      <c r="H104" t="n">
         <v>-0.002897039947725499</v>
       </c>
-      <c r="I104">
+      <c r="I104" t="n">
         <v>0.1016415423305528</v>
       </c>
-      <c r="J104">
+      <c r="J104" t="n">
         <v>0.03612478548853293</v>
       </c>
-      <c r="K104">
+      <c r="K104" t="n">
         <v>0.03612478548853293</v>
       </c>
     </row>
-    <row r="105" spans="1:11">
-      <c r="A105" s="2">
+    <row r="105">
+      <c r="A105" s="2" t="n">
         <v>42644</v>
       </c>
-      <c r="B105">
+      <c r="B105" t="n">
         <v>37.38000106811523</v>
       </c>
-      <c r="C105">
+      <c r="C105" t="n">
         <v>37.56000137329102</v>
       </c>
-      <c r="D105">
+      <c r="D105" t="n">
         <v>37.18000030517578</v>
       </c>
-      <c r="E105">
+      <c r="E105" t="n">
         <v>37.36000061035156</v>
       </c>
-      <c r="F105">
-        <v>32.27565002441406</v>
-      </c>
-      <c r="G105">
+      <c r="F105" t="n">
+        <v>32.27565383911133</v>
+      </c>
+      <c r="G105" t="n">
         <v>229600</v>
       </c>
-      <c r="H105">
+      <c r="H105" t="n">
         <v>-0.01320655023611628</v>
       </c>
-      <c r="I105">
+      <c r="I105" t="n">
         <v>0.1011549841071632</v>
       </c>
-      <c r="J105">
+      <c r="J105" t="n">
         <v>-0.07203173949539299</v>
       </c>
-      <c r="K105">
+      <c r="K105" t="n">
         <v>-0.07203173949539299</v>
       </c>
     </row>
-    <row r="106" spans="1:11">
-      <c r="A106" s="2">
+    <row r="106">
+      <c r="A106" s="2" t="n">
         <v>42675</v>
       </c>
-      <c r="B106">
+      <c r="B106" t="n">
         <v>31.86000061035156</v>
       </c>
-      <c r="C106">
+      <c r="C106" t="n">
         <v>32.0099983215332</v>
       </c>
-      <c r="D106">
+      <c r="D106" t="n">
         <v>31.70000076293945</v>
       </c>
-      <c r="E106">
+      <c r="E106" t="n">
         <v>31.81999969482422</v>
       </c>
-      <c r="F106">
-        <v>27.48959350585938</v>
-      </c>
-      <c r="G106">
+      <c r="F106" t="n">
+        <v>27.48959541320801</v>
+      </c>
+      <c r="G106" t="n">
         <v>449100</v>
       </c>
-      <c r="H106">
+      <c r="H106" t="n">
         <v>-0.1482869599844798</v>
       </c>
-      <c r="I106">
+      <c r="I106" t="n">
         <v>0.1017505221796077</v>
       </c>
-      <c r="J106">
+      <c r="J106" t="n">
         <v>-0.1694075031537717</v>
       </c>
-      <c r="K106">
+      <c r="K106" t="n">
         <v>-0.1694075031537717</v>
       </c>
     </row>
-    <row r="107" spans="1:11">
-      <c r="A107" s="2">
+    <row r="107">
+      <c r="A107" s="2" t="n">
         <v>42705</v>
       </c>
-      <c r="B107">
+      <c r="B107" t="n">
         <v>32.5</v>
       </c>
-      <c r="C107">
+      <c r="C107" t="n">
         <v>32.72999954223633</v>
       </c>
-      <c r="D107">
+      <c r="D107" t="n">
         <v>32.36000061035156</v>
       </c>
-      <c r="E107">
+      <c r="E107" t="n">
         <v>32.47000122070312</v>
       </c>
-      <c r="F107">
-        <v>28.09531784057617</v>
-      </c>
-      <c r="G107">
+      <c r="F107" t="n">
+        <v>28.09532165527344</v>
+      </c>
+      <c r="G107" t="n">
         <v>480100</v>
       </c>
-      <c r="H107">
+      <c r="H107" t="n">
         <v>0.02042745229770171</v>
       </c>
-      <c r="I107">
+      <c r="I107" t="n">
         <v>0.1012768562394373</v>
       </c>
-      <c r="J107">
+      <c r="J107" t="n">
         <v>-0.1069856799876117</v>
       </c>
-      <c r="K107">
+      <c r="K107" t="n">
         <v>-0.1069856799876117</v>
       </c>
     </row>
-    <row r="108" spans="1:11">
-      <c r="A108" s="2">
+    <row r="108">
+      <c r="A108" s="2" t="n">
         <v>42736</v>
       </c>
-      <c r="B108">
+      <c r="B108" t="n">
         <v>33.72999954223633</v>
       </c>
-      <c r="C108">
+      <c r="C108" t="n">
         <v>33.75</v>
       </c>
-      <c r="D108">
+      <c r="D108" t="n">
         <v>33.47000122070312</v>
       </c>
-      <c r="E108">
+      <c r="E108" t="n">
         <v>33.61000061035156</v>
       </c>
-      <c r="F108">
-        <v>29.08172416687012</v>
-      </c>
-      <c r="G108">
+      <c r="F108" t="n">
+        <v>29.08172607421875</v>
+      </c>
+      <c r="G108" t="n">
         <v>300200</v>
       </c>
-      <c r="H108">
+      <c r="H108" t="n">
         <v>0.03510931157346442</v>
       </c>
-      <c r="I108">
+      <c r="I108" t="n">
         <v>0.1008454632026415</v>
       </c>
-      <c r="J108">
+      <c r="J108" t="n">
         <v>-0.09626238635530227</v>
       </c>
-      <c r="K108">
+      <c r="K108" t="n">
         <v>-0.09626238635530227</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
-      <c r="A109" s="2">
+    <row r="109">
+      <c r="A109" s="2" t="n">
         <v>42767</v>
       </c>
-      <c r="B109">
+      <c r="B109" t="n">
         <v>35.54999923706055</v>
       </c>
-      <c r="C109">
+      <c r="C109" t="n">
         <v>35.56000137329102</v>
       </c>
-      <c r="D109">
+      <c r="D109" t="n">
         <v>35.09999847412109</v>
       </c>
-      <c r="E109">
+      <c r="E109" t="n">
         <v>35.13999938964844</v>
       </c>
-      <c r="F109">
+      <c r="F109" t="n">
         <v>30.40558815002441</v>
       </c>
-      <c r="G109">
+      <c r="G109" t="n">
         <v>268100</v>
       </c>
-      <c r="H109">
+      <c r="H109" t="n">
         <v>0.04552212887570284</v>
       </c>
-      <c r="I109">
+      <c r="I109" t="n">
         <v>0.1004564928177423</v>
       </c>
-      <c r="J109">
+      <c r="J109" t="n">
         <v>-0.06243330259251834</v>
       </c>
-      <c r="K109">
+      <c r="K109" t="n">
         <v>-0.06243330259251834</v>
       </c>
     </row>
-    <row r="110" spans="1:11">
-      <c r="A110" s="2">
+    <row r="110">
+      <c r="A110" s="2" t="n">
         <v>42795</v>
       </c>
-      <c r="B110">
+      <c r="B110" t="n">
         <v>35.88000106811523</v>
       </c>
-      <c r="C110">
+      <c r="C110" t="n">
         <v>35.97000122070312</v>
       </c>
-      <c r="D110">
+      <c r="D110" t="n">
         <v>35.72999954223633</v>
       </c>
-      <c r="E110">
+      <c r="E110" t="n">
         <v>35.79999923706055</v>
       </c>
-      <c r="F110">
-        <v>30.97666931152344</v>
-      </c>
-      <c r="G110">
+      <c r="F110" t="n">
+        <v>30.9766674041748</v>
+      </c>
+      <c r="G110" t="n">
         <v>300400</v>
       </c>
-      <c r="H110">
+      <c r="H110" t="n">
         <v>0.01878201078189345</v>
       </c>
-      <c r="I110">
+      <c r="I110" t="n">
         <v>0.09999826991433586</v>
       </c>
-      <c r="J110">
+      <c r="J110" t="n">
         <v>-0.1833941808290057</v>
       </c>
-      <c r="K110">
+      <c r="K110" t="n">
         <v>-0.1833941808290057</v>
       </c>
     </row>
-    <row r="111" spans="1:11">
-      <c r="A111" s="2">
+    <row r="111">
+      <c r="A111" s="2" t="n">
         <v>42826</v>
       </c>
-      <c r="B111">
+      <c r="B111" t="n">
         <v>39.79999923706055</v>
       </c>
-      <c r="C111">
+      <c r="C111" t="n">
         <v>39.88999938964844</v>
       </c>
-      <c r="D111">
+      <c r="D111" t="n">
         <v>39.65000152587891</v>
       </c>
-      <c r="E111">
+      <c r="E111" t="n">
         <v>39.77000045776367</v>
       </c>
-      <c r="F111">
-        <v>34.41178894042969</v>
-      </c>
-      <c r="G111">
+      <c r="F111" t="n">
+        <v>34.41179275512695</v>
+      </c>
+      <c r="G111" t="n">
         <v>392500</v>
       </c>
-      <c r="H111">
+      <c r="H111" t="n">
         <v>0.1108938912097333</v>
       </c>
-      <c r="I111">
+      <c r="I111" t="n">
         <v>0.1000729340226833</v>
       </c>
-      <c r="J111">
+      <c r="J111" t="n">
         <v>-0.1346823052657597</v>
       </c>
-      <c r="K111">
+      <c r="K111" t="n">
         <v>-0.1346823052657597</v>
       </c>
     </row>
-    <row r="112" spans="1:11">
-      <c r="A112" s="2">
+    <row r="112">
+      <c r="A112" s="2" t="n">
         <v>42856</v>
       </c>
-      <c r="B112">
+      <c r="B112" t="n">
         <v>41.20999908447266</v>
       </c>
-      <c r="C112">
+      <c r="C112" t="n">
         <v>41.2599983215332</v>
       </c>
-      <c r="D112">
+      <c r="D112" t="n">
         <v>40.90999984741211</v>
       </c>
-      <c r="E112">
+      <c r="E112" t="n">
         <v>41.20000076293945</v>
       </c>
-      <c r="F112">
-        <v>35.64912796020508</v>
-      </c>
-      <c r="G112">
+      <c r="F112" t="n">
+        <v>35.64913940429688</v>
+      </c>
+      <c r="G112" t="n">
         <v>619700</v>
       </c>
-      <c r="H112">
+      <c r="H112" t="n">
         <v>0.03595675857973557</v>
       </c>
-      <c r="I112">
+      <c r="I112" t="n">
         <v>0.09966051246474</v>
       </c>
-      <c r="J112">
+      <c r="J112" t="n">
         <v>0.03883007870530375</v>
       </c>
-      <c r="K112">
+      <c r="K112" t="n">
         <v>0.03883007870530375</v>
       </c>
     </row>
-    <row r="113" spans="1:11">
-      <c r="A113" s="2">
+    <row r="113">
+      <c r="A113" s="2" t="n">
         <v>42887</v>
       </c>
-      <c r="B113">
+      <c r="B113" t="n">
         <v>41.41999816894531</v>
       </c>
-      <c r="C113">
+      <c r="C113" t="n">
         <v>41.70999908447266</v>
       </c>
-      <c r="D113">
+      <c r="D113" t="n">
         <v>41.41999816894531</v>
       </c>
-      <c r="E113">
+      <c r="E113" t="n">
         <v>41.5099983215332</v>
       </c>
-      <c r="F113">
+      <c r="F113" t="n">
         <v>36.8156852722168</v>
       </c>
-      <c r="G113">
+      <c r="G113" t="n">
         <v>173000</v>
       </c>
-      <c r="H113">
+      <c r="H113" t="n">
         <v>0.00752421244789403</v>
       </c>
-      <c r="I113">
+      <c r="I113" t="n">
         <v>0.09920706578248252</v>
       </c>
-      <c r="J113">
+      <c r="J113" t="n">
         <v>0.04691038396153169</v>
       </c>
-      <c r="K113">
+      <c r="K113" t="n">
         <v>0.04691038396153169</v>
       </c>
     </row>
-    <row r="114" spans="1:11">
-      <c r="A114" s="2">
+    <row r="114">
+      <c r="A114" s="2" t="n">
         <v>42917</v>
       </c>
-      <c r="B114">
+      <c r="B114" t="n">
         <v>44.15000152587891</v>
       </c>
-      <c r="C114">
+      <c r="C114" t="n">
         <v>44.38999938964844</v>
       </c>
-      <c r="D114">
+      <c r="D114" t="n">
         <v>44.02999877929688</v>
       </c>
-      <c r="E114">
+      <c r="E114" t="n">
         <v>44.33000183105469</v>
       </c>
-      <c r="F114">
-        <v>39.31676864624023</v>
-      </c>
-      <c r="G114">
+      <c r="F114" t="n">
+        <v>39.31677627563477</v>
+      </c>
+      <c r="G114" t="n">
         <v>306600</v>
       </c>
-      <c r="H114">
+      <c r="H114" t="n">
         <v>0.0679355245374369</v>
       </c>
-      <c r="I114">
+      <c r="I114" t="n">
         <v>0.09894406086611424</v>
       </c>
-      <c r="J114">
+      <c r="J114" t="n">
         <v>0.1712022091986112</v>
       </c>
-      <c r="K114">
+      <c r="K114" t="n">
         <v>0.1712022091986112</v>
       </c>
     </row>
-    <row r="115" spans="1:11">
-      <c r="A115" s="2">
+    <row r="115">
+      <c r="A115" s="2" t="n">
         <v>42948</v>
       </c>
-      <c r="B115">
+      <c r="B115" t="n">
         <v>46.11000061035156</v>
       </c>
-      <c r="C115">
+      <c r="C115" t="n">
         <v>46.34000015258789</v>
       </c>
-      <c r="D115">
+      <c r="D115" t="n">
         <v>46.0099983215332</v>
       </c>
-      <c r="E115">
+      <c r="E115" t="n">
         <v>46.2400016784668</v>
       </c>
-      <c r="F115">
-        <v>41.01078033447266</v>
-      </c>
-      <c r="G115">
+      <c r="F115" t="n">
+        <v>41.01078414916992</v>
+      </c>
+      <c r="G115" t="n">
         <v>257100</v>
       </c>
-      <c r="H115">
+      <c r="H115" t="n">
         <v>0.04308594108999309</v>
       </c>
-      <c r="I115">
+      <c r="I115" t="n">
         <v>0.09856813349398826</v>
       </c>
-      <c r="J115">
+      <c r="J115" t="n">
         <v>0.217803534155655</v>
       </c>
-      <c r="K115">
+      <c r="K115" t="n">
         <v>0.217803534155655</v>
       </c>
     </row>
-    <row r="116" spans="1:11">
-      <c r="A116" s="2">
+    <row r="116">
+      <c r="A116" s="2" t="n">
         <v>42979</v>
       </c>
-      <c r="B116">
+      <c r="B116" t="n">
         <v>41.9900016784668</v>
       </c>
-      <c r="C116">
+      <c r="C116" t="n">
         <v>42.02999877929688</v>
       </c>
-      <c r="D116">
+      <c r="D116" t="n">
         <v>41.65000152587891</v>
       </c>
-      <c r="E116">
+      <c r="E116" t="n">
         <v>41.81000137329102</v>
       </c>
-      <c r="F116">
+      <c r="F116" t="n">
         <v>37.08176040649414</v>
       </c>
-      <c r="G116">
+      <c r="G116" t="n">
         <v>281000</v>
       </c>
-      <c r="H116">
+      <c r="H116" t="n">
         <v>-0.09580450139210872</v>
       </c>
-      <c r="I116">
+      <c r="I116" t="n">
         <v>0.09858293416968768</v>
       </c>
-      <c r="J116">
+      <c r="J116" t="n">
         <v>0.1043317670169148</v>
       </c>
-      <c r="K116">
+      <c r="K116" t="n">
         <v>0.1043317670169148</v>
       </c>
     </row>
-    <row r="117" spans="1:11">
-      <c r="A117" s="2">
+    <row r="117">
+      <c r="A117" s="2" t="n">
         <v>43009</v>
       </c>
-      <c r="B117">
+      <c r="B117" t="n">
         <v>41.47000122070312</v>
       </c>
-      <c r="C117">
+      <c r="C117" t="n">
         <v>41.84000015258789</v>
       </c>
-      <c r="D117">
+      <c r="D117" t="n">
         <v>41.18000030517578</v>
       </c>
-      <c r="E117">
+      <c r="E117" t="n">
         <v>41.81999969482422</v>
       </c>
-      <c r="F117">
+      <c r="F117" t="n">
         <v>37.09062957763672</v>
       </c>
-      <c r="G117">
+      <c r="G117" t="n">
         <v>237700</v>
       </c>
-      <c r="H117">
+      <c r="H117" t="n">
         <v>0.0002391370773691115</v>
       </c>
-      <c r="I117">
+      <c r="I117" t="n">
         <v>0.09815022096909071</v>
       </c>
-      <c r="J117">
+      <c r="J117" t="n">
         <v>0.1193789885334449</v>
       </c>
-      <c r="K117">
+      <c r="K117" t="n">
         <v>0.1193789885334449</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
-      <c r="A118" s="2">
+    <row r="118">
+      <c r="A118" s="2" t="n">
         <v>43040</v>
       </c>
-      <c r="B118">
+      <c r="B118" t="n">
         <v>37.70000076293945</v>
       </c>
-      <c r="C118">
+      <c r="C118" t="n">
         <v>38.38000106811523</v>
       </c>
-      <c r="D118">
+      <c r="D118" t="n">
         <v>37.70000076293945</v>
       </c>
-      <c r="E118">
+      <c r="E118" t="n">
         <v>37.88999938964844</v>
       </c>
-      <c r="F118">
-        <v>33.60507202148438</v>
-      </c>
-      <c r="G118">
+      <c r="F118" t="n">
+        <v>33.60506057739258</v>
+      </c>
+      <c r="G118" t="n">
         <v>725300</v>
       </c>
-      <c r="H118">
+      <c r="H118" t="n">
         <v>-0.09397418301899629</v>
       </c>
-      <c r="I118">
+      <c r="I118" t="n">
         <v>0.09814458855920941</v>
       </c>
-      <c r="J118">
+      <c r="J118" t="n">
         <v>0.1907605202086646</v>
       </c>
-      <c r="K118">
+      <c r="K118" t="n">
         <v>0.1907605202086646</v>
       </c>
     </row>
-    <row r="119" spans="1:11">
-      <c r="A119" s="2">
+    <row r="119">
+      <c r="A119" s="2" t="n">
         <v>43070</v>
       </c>
-      <c r="B119">
+      <c r="B119" t="n">
         <v>43.33000183105469</v>
       </c>
-      <c r="C119">
+      <c r="C119" t="n">
         <v>43.77000045776367</v>
       </c>
-      <c r="D119">
+      <c r="D119" t="n">
         <v>43.33000183105469</v>
       </c>
-      <c r="E119">
+      <c r="E119" t="n">
         <v>43.45999908447266</v>
       </c>
-      <c r="F119">
-        <v>38.65434646606445</v>
-      </c>
-      <c r="G119">
+      <c r="F119" t="n">
+        <v>38.65435028076172</v>
+      </c>
+      <c r="G119" t="n">
         <v>411300</v>
       </c>
-      <c r="H119">
+      <c r="H119" t="n">
         <v>0.1470044809857121</v>
       </c>
-      <c r="I119">
+      <c r="I119" t="n">
         <v>0.09862203647781945</v>
       </c>
-      <c r="J119">
+      <c r="J119" t="n">
         <v>0.3384661980475141</v>
       </c>
-      <c r="K119">
+      <c r="K119" t="n">
         <v>0.3384661980475141</v>
       </c>
     </row>
-    <row r="120" spans="1:11">
-      <c r="A120" s="2">
+    <row r="120">
+      <c r="A120" s="2" t="n">
         <v>43101</v>
       </c>
-      <c r="B120">
+      <c r="B120" t="n">
         <v>46.04000091552734</v>
       </c>
-      <c r="C120">
+      <c r="C120" t="n">
         <v>46.13999938964844</v>
       </c>
-      <c r="D120">
+      <c r="D120" t="n">
         <v>45.13999938964844</v>
       </c>
-      <c r="E120">
+      <c r="E120" t="n">
         <v>45.5</v>
       </c>
-      <c r="F120">
+      <c r="F120" t="n">
         <v>40.46877288818359</v>
       </c>
-      <c r="G120">
+      <c r="G120" t="n">
         <v>291500</v>
       </c>
-      <c r="H120">
+      <c r="H120" t="n">
         <v>0.04693973673497376</v>
       </c>
-      <c r="I120">
+      <c r="I120" t="n">
         <v>0.09827796324313393</v>
       </c>
-      <c r="J120">
+      <c r="J120" t="n">
         <v>0.3537637362013741</v>
       </c>
-      <c r="K120">
+      <c r="K120" t="n">
         <v>0.3537637362013741</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
-      <c r="A121" s="2">
+    <row r="121">
+      <c r="A121" s="2" t="n">
         <v>43132</v>
       </c>
-      <c r="B121">
+      <c r="B121" t="n">
         <v>44.81999969482422</v>
       </c>
-      <c r="C121">
+      <c r="C121" t="n">
         <v>45.15000152587891</v>
       </c>
-      <c r="D121">
+      <c r="D121" t="n">
         <v>44.56000137329102</v>
       </c>
-      <c r="E121">
+      <c r="E121" t="n">
         <v>44.59999847412109</v>
       </c>
-      <c r="F121">
+      <c r="F121" t="n">
         <v>39.66829681396484</v>
       </c>
-      <c r="G121">
+      <c r="G121" t="n">
         <v>173000</v>
       </c>
-      <c r="H121">
+      <c r="H121" t="n">
         <v>-0.01978025331601996</v>
       </c>
-      <c r="I121">
+      <c r="I121" t="n">
         <v>0.09788636374254202</v>
       </c>
-      <c r="J121">
+      <c r="J121" t="n">
         <v>0.2692088573928486</v>
       </c>
-      <c r="K121">
+      <c r="K121" t="n">
         <v>0.2692088573928486</v>
       </c>
     </row>
-    <row r="122" spans="1:11">
-      <c r="A122" s="2">
+    <row r="122">
+      <c r="A122" s="2" t="n">
         <v>43160</v>
       </c>
-      <c r="B122">
+      <c r="B122" t="n">
         <v>41.86000061035156</v>
       </c>
-      <c r="C122">
+      <c r="C122" t="n">
         <v>42.70999908447266</v>
       </c>
-      <c r="D122">
+      <c r="D122" t="n">
         <v>41.77999877929688</v>
       </c>
-      <c r="E122">
+      <c r="E122" t="n">
         <v>42.41999816894531</v>
       </c>
-      <c r="F122">
+      <c r="F122" t="n">
         <v>37.72935104370117</v>
       </c>
-      <c r="G122">
+      <c r="G122" t="n">
         <v>245500</v>
       </c>
-      <c r="H122">
+      <c r="H122" t="n">
         <v>-0.04887893228159446</v>
       </c>
-      <c r="I122">
+      <c r="I122" t="n">
         <v>0.09759588618485841</v>
       </c>
-      <c r="J122">
+      <c r="J122" t="n">
         <v>0.1849161752224753</v>
       </c>
-      <c r="K122">
+      <c r="K122" t="n">
         <v>0.1849161752224753</v>
       </c>
     </row>
-    <row r="123" spans="1:11">
-      <c r="A123" s="2">
+    <row r="123">
+      <c r="A123" s="2" t="n">
         <v>43191</v>
       </c>
-      <c r="B123">
+      <c r="B123" t="n">
         <v>38.63000106811523</v>
       </c>
-      <c r="C123">
+      <c r="C123" t="n">
         <v>38.72000122070312</v>
       </c>
-      <c r="D123">
+      <c r="D123" t="n">
         <v>37.36000061035156</v>
       </c>
-      <c r="E123">
+      <c r="E123" t="n">
         <v>37.68000030517578</v>
       </c>
-      <c r="F123">
-        <v>33.51348876953125</v>
-      </c>
-      <c r="G123">
+      <c r="F123" t="n">
+        <v>33.51348495483398</v>
+      </c>
+      <c r="G123" t="n">
         <v>812800</v>
       </c>
-      <c r="H123">
+      <c r="H123" t="n">
         <v>-0.1117396998673039</v>
       </c>
-      <c r="I123">
+      <c r="I123" t="n">
         <v>0.09722347286284354</v>
       </c>
-      <c r="J123">
+      <c r="J123" t="n">
         <v>-0.05255217823815472</v>
       </c>
-      <c r="K123">
+      <c r="K123" t="n">
         <v>-0.05255217823815472</v>
       </c>
     </row>
-    <row r="124" spans="1:11">
-      <c r="A124" s="2">
+    <row r="124">
+      <c r="A124" s="2" t="n">
         <v>43221</v>
       </c>
-      <c r="B124">
+      <c r="B124" t="n">
         <v>33.33000183105469</v>
       </c>
-      <c r="C124">
+      <c r="C124" t="n">
         <v>33.33000183105469</v>
       </c>
-      <c r="D124">
+      <c r="D124" t="n">
         <v>32.56000137329102</v>
       </c>
-      <c r="E124">
+      <c r="E124" t="n">
         <v>32.90000152587891</v>
       </c>
-      <c r="F124">
+      <c r="F124" t="n">
         <v>29.26203918457031</v>
       </c>
-      <c r="G124">
+      <c r="G124" t="n">
         <v>675500</v>
       </c>
-      <c r="H124">
+      <c r="H124" t="n">
         <v>-0.1268577160451957</v>
       </c>
-      <c r="I124">
+      <c r="I124" t="n">
         <v>0.09791115502458098</v>
       </c>
-      <c r="J124">
+      <c r="J124" t="n">
         <v>-0.2014562884311067</v>
       </c>
-      <c r="K124">
+      <c r="K124" t="n">
         <v>-0.2014562884311067</v>
       </c>
     </row>
-    <row r="125" spans="1:11">
-      <c r="A125" s="2">
+    <row r="125">
+      <c r="A125" s="2" t="n">
         <v>43252</v>
       </c>
-      <c r="B125">
+      <c r="B125" t="n">
         <v>30.44000053405762</v>
       </c>
-      <c r="C125">
+      <c r="C125" t="n">
         <v>30.53000068664551</v>
       </c>
-      <c r="D125">
+      <c r="D125" t="n">
         <v>29.95999908447266</v>
       </c>
-      <c r="E125">
+      <c r="E125" t="n">
         <v>30.21999931335449</v>
       </c>
-      <c r="F125">
+      <c r="F125" t="n">
         <v>27.74172973632812</v>
       </c>
-      <c r="G125">
+      <c r="G125" t="n">
         <v>330300</v>
       </c>
-      <c r="H125">
+      <c r="H125" t="n">
         <v>-0.08145903003731914</v>
       </c>
-      <c r="I125">
+      <c r="I125" t="n">
         <v>0.09744097261413037</v>
       </c>
-      <c r="J125">
+      <c r="J125" t="n">
         <v>-0.2719826418861129</v>
       </c>
-      <c r="K125">
+      <c r="K125" t="n">
         <v>-0.2719826418861129</v>
       </c>
     </row>
-    <row r="126" spans="1:11">
-      <c r="A126" s="2">
+    <row r="126">
+      <c r="A126" s="2" t="n">
         <v>43282</v>
       </c>
-      <c r="B126">
+      <c r="B126" t="n">
         <v>28.15999984741211</v>
       </c>
-      <c r="C126">
+      <c r="C126" t="n">
         <v>28.29000091552734</v>
       </c>
-      <c r="D126">
+      <c r="D126" t="n">
         <v>27.77000045776367</v>
       </c>
-      <c r="E126">
+      <c r="E126" t="n">
         <v>28.20999908447266</v>
       </c>
-      <c r="F126">
-        <v>25.89656257629395</v>
-      </c>
-      <c r="G126">
+      <c r="F126" t="n">
+        <v>25.89656448364258</v>
+      </c>
+      <c r="G126" t="n">
         <v>395800</v>
       </c>
-      <c r="H126">
+      <c r="H126" t="n">
         <v>-0.06651225263243465</v>
       </c>
-      <c r="I126">
+      <c r="I126" t="n">
         <v>0.09485408085133507</v>
       </c>
-      <c r="J126">
+      <c r="J126" t="n">
         <v>-0.3636364105739652</v>
       </c>
-      <c r="K126">
+      <c r="K126" t="n">
         <v>-0.3636364105739652</v>
       </c>
     </row>
-    <row r="127" spans="1:11">
-      <c r="A127" s="2">
+    <row r="127">
+      <c r="A127" s="2" t="n">
         <v>43313</v>
       </c>
-      <c r="B127">
+      <c r="B127" t="n">
         <v>20.22999954223633</v>
       </c>
-      <c r="C127">
+      <c r="C127" t="n">
         <v>20.26000022888184</v>
       </c>
-      <c r="D127">
+      <c r="D127" t="n">
         <v>19.72999954223633</v>
       </c>
-      <c r="E127">
+      <c r="E127" t="n">
         <v>20.20999908447266</v>
       </c>
-      <c r="F127">
+      <c r="F127" t="n">
         <v>18.55262565612793</v>
       </c>
-      <c r="G127">
+      <c r="G127" t="n">
         <v>1065400</v>
       </c>
-      <c r="H127">
+      <c r="H127" t="n">
         <v>-0.2835873895651191</v>
       </c>
-      <c r="I127">
+      <c r="I127" t="n">
         <v>0.09802632381876346</v>
       </c>
-      <c r="J127">
+      <c r="J127" t="n">
         <v>-0.5629325616161447</v>
       </c>
-      <c r="K127">
+      <c r="K127" t="n">
         <v>-0.5629325616161447</v>
       </c>
     </row>
-    <row r="128" spans="1:11">
-      <c r="A128" s="2">
+    <row r="128">
+      <c r="A128" s="2" t="n">
         <v>43344</v>
       </c>
-      <c r="B128">
+      <c r="B128" t="n">
         <v>23.90999984741211</v>
       </c>
-      <c r="C128">
+      <c r="C128" t="n">
         <v>24.09000015258789</v>
       </c>
-      <c r="D128">
+      <c r="D128" t="n">
         <v>23.61000061035156</v>
       </c>
-      <c r="E128">
+      <c r="E128" t="n">
         <v>23.80999946594238</v>
       </c>
-      <c r="F128">
-        <v>21.85739707946777</v>
-      </c>
-      <c r="G128">
+      <c r="F128" t="n">
+        <v>21.85740089416504</v>
+      </c>
+      <c r="G128" t="n">
         <v>1198400</v>
       </c>
-      <c r="H128">
+      <c r="H128" t="n">
         <v>0.178129665737373</v>
       </c>
-      <c r="I128">
+      <c r="I128" t="n">
         <v>0.09853884714830909</v>
       </c>
-      <c r="J128">
+      <c r="J128" t="n">
         <v>-0.4305190460684213</v>
       </c>
-      <c r="K128">
+      <c r="K128" t="n">
         <v>-0.4305190460684213</v>
       </c>
     </row>
-    <row r="129" spans="1:11">
-      <c r="A129" s="2">
+    <row r="129">
+      <c r="A129" s="2" t="n">
         <v>43374</v>
       </c>
-      <c r="B129">
+      <c r="B129" t="n">
         <v>24.09000015258789</v>
       </c>
-      <c r="C129">
+      <c r="C129" t="n">
         <v>24.17000007629395</v>
       </c>
-      <c r="D129">
+      <c r="D129" t="n">
         <v>23.02000045776367</v>
       </c>
-      <c r="E129">
+      <c r="E129" t="n">
         <v>23.35000038146973</v>
       </c>
-      <c r="F129">
-        <v>21.43512153625488</v>
-      </c>
-      <c r="G129">
+      <c r="F129" t="n">
+        <v>21.43512344360352</v>
+      </c>
+      <c r="G129" t="n">
         <v>803700</v>
       </c>
-      <c r="H129">
+      <c r="H129" t="n">
         <v>-0.019319575589686</v>
       </c>
-      <c r="I129">
+      <c r="I129" t="n">
         <v>0.09297259422292677</v>
       </c>
-      <c r="J129">
+      <c r="J129" t="n">
         <v>-0.441654697468599</v>
       </c>
-      <c r="K129">
+      <c r="K129" t="n">
         <v>-0.441654697468599</v>
       </c>
     </row>
-    <row r="130" spans="1:11">
-      <c r="A130" s="2">
+    <row r="130">
+      <c r="A130" s="2" t="n">
         <v>43405</v>
       </c>
-      <c r="B130">
+      <c r="B130" t="n">
         <v>26.3700008392334</v>
       </c>
-      <c r="C130">
+      <c r="C130" t="n">
         <v>26.38999938964844</v>
       </c>
-      <c r="D130">
+      <c r="D130" t="n">
         <v>26.04999923706055</v>
       </c>
-      <c r="E130">
+      <c r="E130" t="n">
         <v>26.26000022888184</v>
       </c>
-      <c r="F130">
+      <c r="F130" t="n">
         <v>24.10648155212402</v>
       </c>
-      <c r="G130">
+      <c r="G130" t="n">
         <v>994100</v>
       </c>
-      <c r="H130">
+      <c r="H130" t="n">
         <v>0.1246252590951327</v>
       </c>
-      <c r="I130">
+      <c r="I130" t="n">
         <v>0.09300564838264837</v>
       </c>
-      <c r="J130">
+      <c r="J130" t="n">
         <v>-0.3069411282161151</v>
       </c>
-      <c r="K130">
+      <c r="K130" t="n">
         <v>-0.3069411282161151</v>
       </c>
     </row>
-    <row r="131" spans="1:11">
-      <c r="A131" s="2">
+    <row r="131">
+      <c r="A131" s="2" t="n">
         <v>43435</v>
       </c>
-      <c r="B131">
+      <c r="B131" t="n">
         <v>24.70999908447266</v>
       </c>
-      <c r="C131">
+      <c r="C131" t="n">
         <v>24.79999923706055</v>
       </c>
-      <c r="D131">
+      <c r="D131" t="n">
         <v>24.43000030517578</v>
       </c>
-      <c r="E131">
+      <c r="E131" t="n">
         <v>24.56999969482422</v>
       </c>
-      <c r="F131">
+      <c r="F131" t="n">
         <v>22.62648391723633</v>
       </c>
-      <c r="G131">
+      <c r="G131" t="n">
         <v>633400</v>
       </c>
-      <c r="H131">
+      <c r="H131" t="n">
         <v>-0.06435645541993884</v>
       </c>
-      <c r="I131">
+      <c r="I131" t="n">
         <v>0.09304520516179271</v>
       </c>
-      <c r="J131">
+      <c r="J131" t="n">
         <v>-0.4346525491851065</v>
       </c>
-      <c r="K131">
+      <c r="K131" t="n">
         <v>-0.4346525491851065</v>
       </c>
     </row>
-    <row r="132" spans="1:11">
-      <c r="A132" s="2">
+    <row r="132">
+      <c r="A132" s="2" t="n">
         <v>43466</v>
       </c>
-      <c r="B132">
+      <c r="B132" t="n">
         <v>28.92000007629395</v>
       </c>
-      <c r="C132">
+      <c r="C132" t="n">
         <v>29</v>
       </c>
-      <c r="D132">
+      <c r="D132" t="n">
         <v>28.6299991607666</v>
       </c>
-      <c r="E132">
+      <c r="E132" t="n">
         <v>28.89999961853027</v>
       </c>
-      <c r="F132">
-        <v>26.61397552490234</v>
-      </c>
-      <c r="G132">
+      <c r="F132" t="n">
+        <v>26.61397743225098</v>
+      </c>
+      <c r="G132" t="n">
         <v>841500</v>
       </c>
-      <c r="H132">
+      <c r="H132" t="n">
         <v>0.1762311753149182</v>
       </c>
-      <c r="I132">
+      <c r="I132" t="n">
         <v>0.09365063296728982</v>
       </c>
-      <c r="J132">
+      <c r="J132" t="n">
         <v>-0.3648351732191148</v>
       </c>
-      <c r="K132">
+      <c r="K132" t="n">
         <v>-0.3648351732191148</v>
       </c>
     </row>
-    <row r="133" spans="1:11">
-      <c r="A133" s="2">
+    <row r="133">
+      <c r="A133" s="2" t="n">
         <v>43497</v>
       </c>
-      <c r="B133">
+      <c r="B133" t="n">
         <v>28.04000091552734</v>
       </c>
-      <c r="C133">
+      <c r="C133" t="n">
         <v>28.17000007629395</v>
       </c>
-      <c r="D133">
+      <c r="D133" t="n">
         <v>27.81999969482422</v>
       </c>
-      <c r="E133">
+      <c r="E133" t="n">
         <v>27.8700008392334</v>
       </c>
-      <c r="F133">
-        <v>25.66545295715332</v>
-      </c>
-      <c r="G133">
+      <c r="F133" t="n">
+        <v>25.66545104980469</v>
+      </c>
+      <c r="G133" t="n">
         <v>316900</v>
       </c>
-      <c r="H133">
+      <c r="H133" t="n">
         <v>-0.03564009663987866</v>
       </c>
-      <c r="I133">
+      <c r="I133" t="n">
         <v>0.09356371898503918</v>
       </c>
-      <c r="J133">
+      <c r="J133" t="n">
         <v>-0.375112067427428</v>
       </c>
-      <c r="K133">
+      <c r="K133" t="n">
         <v>-0.375112067427428</v>
       </c>
     </row>
-    <row r="134" spans="1:11">
-      <c r="A134" s="2">
+    <row r="134">
+      <c r="A134" s="2" t="n">
         <v>43525</v>
       </c>
-      <c r="B134">
+      <c r="B134" t="n">
         <v>23.8799991607666</v>
       </c>
-      <c r="C134">
+      <c r="C134" t="n">
         <v>24.29000091552734</v>
       </c>
-      <c r="D134">
+      <c r="D134" t="n">
         <v>23.78000068664551</v>
       </c>
-      <c r="E134">
+      <c r="E134" t="n">
         <v>24.27000045776367</v>
       </c>
-      <c r="F134">
+      <c r="F134" t="n">
         <v>22.35021591186523</v>
       </c>
-      <c r="G134">
+      <c r="G134" t="n">
         <v>1058000</v>
       </c>
-      <c r="H134">
+      <c r="H134" t="n">
         <v>-0.1291711615739136</v>
       </c>
-      <c r="I134">
+      <c r="I134" t="n">
         <v>0.09417365882343</v>
       </c>
-      <c r="J134">
+      <c r="J134" t="n">
         <v>-0.4278641795055246</v>
       </c>
-      <c r="K134">
+      <c r="K134" t="n">
         <v>-0.4278641795055246</v>
       </c>
     </row>
-    <row r="135" spans="1:11">
-      <c r="A135" s="2">
+    <row r="135">
+      <c r="A135" s="2" t="n">
         <v>43556</v>
       </c>
-      <c r="B135">
+      <c r="B135" t="n">
         <v>23.15999984741211</v>
       </c>
-      <c r="C135">
+      <c r="C135" t="n">
         <v>23.3700008392334</v>
       </c>
-      <c r="D135">
+      <c r="D135" t="n">
         <v>23.1200008392334</v>
       </c>
-      <c r="E135">
+      <c r="E135" t="n">
         <v>23.31999969482422</v>
       </c>
-      <c r="F135">
+      <c r="F135" t="n">
         <v>21.4753589630127</v>
       </c>
-      <c r="G135">
+      <c r="G135" t="n">
         <v>698600</v>
       </c>
-      <c r="H135">
+      <c r="H135" t="n">
         <v>-0.03914300556329653</v>
       </c>
-      <c r="I135">
+      <c r="I135" t="n">
         <v>0.09127215913737521</v>
       </c>
-      <c r="J135">
+      <c r="J135" t="n">
         <v>-0.381104047081949</v>
       </c>
-      <c r="K135">
+      <c r="K135" t="n">
         <v>-0.381104047081949</v>
       </c>
     </row>
-    <row r="136" spans="1:11">
-      <c r="A136" s="2">
+    <row r="136">
+      <c r="A136" s="2" t="n">
         <v>43586</v>
       </c>
-      <c r="B136">
+      <c r="B136" t="n">
         <v>22.70000076293945</v>
       </c>
-      <c r="C136">
+      <c r="C136" t="n">
         <v>22.88999938964844</v>
       </c>
-      <c r="D136">
+      <c r="D136" t="n">
         <v>22.51000022888184</v>
       </c>
-      <c r="E136">
+      <c r="E136" t="n">
         <v>22.81999969482422</v>
       </c>
-      <c r="F136">
-        <v>21.0149097442627</v>
-      </c>
-      <c r="G136">
+      <c r="F136" t="n">
+        <v>21.01491165161133</v>
+      </c>
+      <c r="G136" t="n">
         <v>781400</v>
       </c>
-      <c r="H136">
+      <c r="H136" t="n">
         <v>-0.02144082360819988</v>
       </c>
-      <c r="I136">
+      <c r="I136" t="n">
         <v>0.08942465891900585</v>
       </c>
-      <c r="J136">
+      <c r="J136" t="n">
         <v>-0.3063830201687325</v>
       </c>
-      <c r="K136">
+      <c r="K136" t="n">
         <v>-0.3063830201687325</v>
       </c>
     </row>
-    <row r="137" spans="1:11">
-      <c r="A137" s="2">
+    <row r="137">
+      <c r="A137" s="2" t="n">
         <v>43617</v>
       </c>
-      <c r="B137">
+      <c r="B137" t="n">
         <v>23.90999984741211</v>
       </c>
-      <c r="C137">
+      <c r="C137" t="n">
         <v>24.05999946594238</v>
       </c>
-      <c r="D137">
+      <c r="D137" t="n">
         <v>23.75</v>
       </c>
-      <c r="E137">
+      <c r="E137" t="n">
         <v>23.81999969482422</v>
       </c>
-      <c r="F137">
-        <v>22.5258674621582</v>
-      </c>
-      <c r="G137">
+      <c r="F137" t="n">
+        <v>22.52586936950684</v>
+      </c>
+      <c r="G137" t="n">
         <v>578900</v>
       </c>
-      <c r="H137">
+      <c r="H137" t="n">
         <v>0.04382121005140971</v>
       </c>
-      <c r="I137">
+      <c r="I137" t="n">
         <v>0.08947212305014407</v>
       </c>
-      <c r="J137">
+      <c r="J137" t="n">
         <v>-0.2117802701505045</v>
       </c>
-      <c r="K137">
+      <c r="K137" t="n">
         <v>-0.2117802701505045</v>
       </c>
     </row>
-    <row r="138" spans="1:11">
-      <c r="A138" s="2">
+    <row r="138">
+      <c r="A138" s="2" t="n">
         <v>43647</v>
       </c>
-      <c r="B138">
+      <c r="B138" t="n">
         <v>26.3700008392334</v>
       </c>
-      <c r="C138">
+      <c r="C138" t="n">
         <v>26.51000022888184</v>
       </c>
-      <c r="D138">
+      <c r="D138" t="n">
         <v>25.60000038146973</v>
       </c>
-      <c r="E138">
+      <c r="E138" t="n">
         <v>26.10000038146973</v>
       </c>
-      <c r="F138">
-        <v>24.68199920654297</v>
-      </c>
-      <c r="G138">
+      <c r="F138" t="n">
+        <v>24.68199729919434</v>
+      </c>
+      <c r="G138" t="n">
         <v>681900</v>
       </c>
-      <c r="H138">
+      <c r="H138" t="n">
         <v>0.09571791418372366</v>
       </c>
-      <c r="I138">
+      <c r="I138" t="n">
         <v>0.08808912799746191</v>
       </c>
-      <c r="J138">
+      <c r="J138" t="n">
         <v>-0.07479612802129842</v>
       </c>
-      <c r="K138">
+      <c r="K138" t="n">
         <v>-0.07479612802129842</v>
       </c>
     </row>
-    <row r="139" spans="1:11">
-      <c r="A139" s="2">
+    <row r="139">
+      <c r="A139" s="2" t="n">
         <v>43678</v>
       </c>
-      <c r="B139">
+      <c r="B139" t="n">
         <v>24.10000038146973</v>
       </c>
-      <c r="C139">
+      <c r="C139" t="n">
         <v>24.28000068664551</v>
       </c>
-      <c r="D139">
+      <c r="D139" t="n">
         <v>24.04999923706055</v>
       </c>
-      <c r="E139">
+      <c r="E139" t="n">
         <v>24.1299991607666</v>
       </c>
-      <c r="F139">
+      <c r="F139" t="n">
         <v>22.81902503967285</v>
       </c>
-      <c r="G139">
+      <c r="G139" t="n">
         <v>152500</v>
       </c>
-      <c r="H139">
+      <c r="H139" t="n">
         <v>-0.07547897287012195</v>
       </c>
-      <c r="I139">
+      <c r="I139" t="n">
         <v>0.08807032812968806</v>
       </c>
-      <c r="J139">
+      <c r="J139" t="n">
         <v>0.1939633970248757</v>
       </c>
-      <c r="K139">
+      <c r="K139" t="n">
         <v>0.1939633970248757</v>
       </c>
     </row>
-    <row r="140" spans="1:11">
-      <c r="A140" s="2">
+    <row r="140">
+      <c r="A140" s="2" t="n">
         <v>43709</v>
       </c>
-      <c r="B140">
+      <c r="B140" t="n">
         <v>26.85000038146973</v>
       </c>
-      <c r="C140">
+      <c r="C140" t="n">
         <v>26.92000007629395</v>
       </c>
-      <c r="D140">
+      <c r="D140" t="n">
         <v>26.65999984741211</v>
       </c>
-      <c r="E140">
+      <c r="E140" t="n">
         <v>26.71999931335449</v>
       </c>
-      <c r="F140">
-        <v>25.26831436157227</v>
-      </c>
-      <c r="G140">
+      <c r="F140" t="n">
+        <v>25.268310546875</v>
+      </c>
+      <c r="G140" t="n">
         <v>686500</v>
       </c>
-      <c r="H140">
+      <c r="H140" t="n">
         <v>0.107335277358775</v>
       </c>
-      <c r="I140">
+      <c r="I140" t="n">
         <v>0.08855803628752529</v>
       </c>
-      <c r="J140">
+      <c r="J140" t="n">
         <v>0.12221755198166</v>
       </c>
-      <c r="K140">
+      <c r="K140" t="n">
         <v>0.12221755198166</v>
       </c>
     </row>
-    <row r="141" spans="1:11">
-      <c r="A141" s="2">
+    <row r="141">
+      <c r="A141" s="2" t="n">
         <v>43739</v>
       </c>
-      <c r="B141">
+      <c r="B141" t="n">
         <v>24.92000007629395</v>
       </c>
-      <c r="C141">
+      <c r="C141" t="n">
         <v>24.92000007629395</v>
       </c>
-      <c r="D141">
+      <c r="D141" t="n">
         <v>24.63999938964844</v>
       </c>
-      <c r="E141">
+      <c r="E141" t="n">
         <v>24.73999977111816</v>
       </c>
-      <c r="F141">
+      <c r="F141" t="n">
         <v>23.39588737487793</v>
       </c>
-      <c r="G141">
+      <c r="G141" t="n">
         <v>258800</v>
       </c>
-      <c r="H141">
+      <c r="H141" t="n">
         <v>-0.07410178117956523</v>
       </c>
-      <c r="I141">
+      <c r="I141" t="n">
         <v>0.08871188351287412</v>
       </c>
-      <c r="J141">
+      <c r="J141" t="n">
         <v>0.05952888081113361</v>
       </c>
-      <c r="K141">
+      <c r="K141" t="n">
         <v>0.05952888081113361</v>
       </c>
     </row>
-    <row r="142" spans="1:11">
-      <c r="A142" s="2">
+    <row r="142">
+      <c r="A142" s="2" t="n">
         <v>43770</v>
       </c>
-      <c r="B142">
+      <c r="B142" t="n">
         <v>26.57999992370605</v>
       </c>
-      <c r="C142">
+      <c r="C142" t="n">
         <v>26.69000053405762</v>
       </c>
-      <c r="D142">
+      <c r="D142" t="n">
         <v>26.51000022888184</v>
       </c>
-      <c r="E142">
+      <c r="E142" t="n">
         <v>26.54000091552734</v>
       </c>
-      <c r="F142">
-        <v>25.09809112548828</v>
-      </c>
-      <c r="G142">
+      <c r="F142" t="n">
+        <v>25.09809494018555</v>
+      </c>
+      <c r="G142" t="n">
         <v>125200</v>
       </c>
-      <c r="H142">
+      <c r="H142" t="n">
         <v>0.07275671629191072</v>
       </c>
-      <c r="I142">
+      <c r="I142" t="n">
         <v>0.08889495399392985</v>
       </c>
-      <c r="J142">
+      <c r="J142" t="n">
         <v>0.01066263077703833</v>
       </c>
-      <c r="K142">
+      <c r="K142" t="n">
         <v>0.01066263077703833</v>
       </c>
     </row>
-    <row r="143" spans="1:11">
-      <c r="A143" s="2">
+    <row r="143">
+      <c r="A143" s="2" t="n">
         <v>43800</v>
       </c>
-      <c r="B143">
+      <c r="B143" t="n">
         <v>27.11000061035156</v>
       </c>
-      <c r="C143">
+      <c r="C143" t="n">
         <v>27.18000030517578</v>
       </c>
-      <c r="D143">
+      <c r="D143" t="n">
         <v>27</v>
       </c>
-      <c r="E143">
+      <c r="E143" t="n">
         <v>27.09000015258789</v>
       </c>
-      <c r="F143">
-        <v>25.90465927124023</v>
-      </c>
-      <c r="G143">
+      <c r="F143" t="n">
+        <v>25.90466117858887</v>
+      </c>
+      <c r="G143" t="n">
         <v>132900</v>
       </c>
-      <c r="H143">
+      <c r="H143" t="n">
         <v>0.02072340686087792</v>
       </c>
-      <c r="I143">
+      <c r="I143" t="n">
         <v>0.08748385383057533</v>
       </c>
-      <c r="J143">
+      <c r="J143" t="n">
         <v>0.1025641224690175</v>
       </c>
-      <c r="K143">
+      <c r="K143" t="n">
         <v>0.1025641224690175</v>
       </c>
     </row>
-    <row r="144" spans="1:11">
-      <c r="A144" s="2">
+    <row r="144">
+      <c r="A144" s="2" t="n">
         <v>43831</v>
       </c>
-      <c r="B144">
+      <c r="B144" t="n">
         <v>27.88999938964844</v>
       </c>
-      <c r="C144">
+      <c r="C144" t="n">
         <v>27.88999938964844</v>
       </c>
-      <c r="D144">
+      <c r="D144" t="n">
         <v>27.6200008392334</v>
       </c>
-      <c r="E144">
+      <c r="E144" t="n">
         <v>27.75</v>
       </c>
-      <c r="F144">
+      <c r="F144" t="n">
         <v>26.53578186035156</v>
       </c>
-      <c r="G144">
+      <c r="G144" t="n">
         <v>419600</v>
       </c>
-      <c r="H144">
+      <c r="H144" t="n">
         <v>0.02436322789570222</v>
       </c>
-      <c r="I144">
+      <c r="I144" t="n">
         <v>0.08745900939875011</v>
       </c>
-      <c r="J144">
+      <c r="J144" t="n">
         <v>-0.03979237486885323</v>
       </c>
-      <c r="K144">
+      <c r="K144" t="n">
         <v>-0.03979237486885323</v>
       </c>
     </row>
-    <row r="145" spans="1:11">
-      <c r="A145" s="2">
+    <row r="145">
+      <c r="A145" s="2" t="n">
         <v>43862</v>
       </c>
-      <c r="B145">
+      <c r="B145" t="n">
         <v>23.67000007629395</v>
       </c>
-      <c r="C145">
+      <c r="C145" t="n">
         <v>23.76000022888184</v>
       </c>
-      <c r="D145">
+      <c r="D145" t="n">
         <v>23.32999992370605</v>
       </c>
-      <c r="E145">
+      <c r="E145" t="n">
         <v>23.64999961853027</v>
       </c>
-      <c r="F145">
-        <v>22.61517906188965</v>
-      </c>
-      <c r="G145">
+      <c r="F145" t="n">
+        <v>22.61518096923828</v>
+      </c>
+      <c r="G145" t="n">
         <v>957200</v>
       </c>
-      <c r="H145">
+      <c r="H145" t="n">
         <v>-0.1477477614944046</v>
       </c>
-      <c r="I145">
+      <c r="I145" t="n">
         <v>0.08796527548239619</v>
       </c>
-      <c r="J145">
+      <c r="J145" t="n">
         <v>-0.1514173338223409</v>
       </c>
-      <c r="K145">
+      <c r="K145" t="n">
         <v>-0.1514173338223409</v>
       </c>
     </row>
-    <row r="146" spans="1:11">
-      <c r="A146" s="2">
+    <row r="146">
+      <c r="A146" s="2" t="n">
         <v>43891</v>
       </c>
-      <c r="B146">
+      <c r="B146" t="n">
         <v>19.04000091552734</v>
       </c>
-      <c r="C146">
+      <c r="C146" t="n">
         <v>19.17000007629395</v>
       </c>
-      <c r="D146">
+      <c r="D146" t="n">
         <v>18.60000038146973</v>
       </c>
-      <c r="E146">
+      <c r="E146" t="n">
         <v>18.79000091552734</v>
       </c>
-      <c r="F146">
-        <v>17.96783256530762</v>
-      </c>
-      <c r="G146">
+      <c r="F146" t="n">
+        <v>17.96783447265625</v>
+      </c>
+      <c r="G146" t="n">
         <v>486100</v>
       </c>
-      <c r="H146">
+      <c r="H146" t="n">
         <v>-0.2054967772259505</v>
       </c>
-      <c r="I146">
+      <c r="I146" t="n">
         <v>0.08876700657397557</v>
       </c>
-      <c r="J146">
+      <c r="J146" t="n">
         <v>-0.2257931371601332</v>
       </c>
-      <c r="K146">
+      <c r="K146" t="n">
         <v>-0.2257931371601332</v>
       </c>
     </row>
-    <row r="147" spans="1:11">
-      <c r="A147" s="2">
+    <row r="147">
+      <c r="A147" s="2" t="n">
         <v>43922</v>
       </c>
-      <c r="B147">
+      <c r="B147" t="n">
         <v>20.20000076293945</v>
       </c>
-      <c r="C147">
+      <c r="C147" t="n">
         <v>20.30999946594238</v>
       </c>
-      <c r="D147">
+      <c r="D147" t="n">
         <v>20.02000045776367</v>
       </c>
-      <c r="E147">
+      <c r="E147" t="n">
         <v>20.11000061035156</v>
       </c>
-      <c r="F147">
-        <v>19.23007392883301</v>
-      </c>
-      <c r="G147">
+      <c r="F147" t="n">
+        <v>19.23007583618164</v>
+      </c>
+      <c r="G147" t="n">
         <v>151600</v>
       </c>
-      <c r="H147">
+      <c r="H147" t="n">
         <v>0.0702501133852218</v>
       </c>
-      <c r="I147">
+      <c r="I147" t="n">
         <v>0.08876149377301505</v>
       </c>
-      <c r="J147">
+      <c r="J147" t="n">
         <v>-0.1376500483053223</v>
       </c>
-      <c r="K147">
+      <c r="K147" t="n">
         <v>-0.1376500483053223</v>
       </c>
     </row>
-    <row r="148" spans="1:11">
-      <c r="A148" s="2">
+    <row r="148">
+      <c r="A148" s="2" t="n">
         <v>43952</v>
       </c>
-      <c r="B148">
+      <c r="B148" t="n">
         <v>21.55999946594238</v>
       </c>
-      <c r="C148">
+      <c r="C148" t="n">
         <v>21.71999931335449</v>
       </c>
-      <c r="D148">
+      <c r="D148" t="n">
         <v>21.45999908447266</v>
       </c>
-      <c r="E148">
+      <c r="E148" t="n">
         <v>21.61000061035156</v>
       </c>
-      <c r="F148">
-        <v>20.66444206237793</v>
-      </c>
-      <c r="G148">
+      <c r="F148" t="n">
+        <v>20.6644401550293</v>
+      </c>
+      <c r="G148" t="n">
         <v>124400</v>
       </c>
-      <c r="H148">
+      <c r="H148" t="n">
         <v>0.07458975407628188</v>
       </c>
-      <c r="I148">
+      <c r="I148" t="n">
         <v>0.08842222035932114</v>
       </c>
-      <c r="J148">
+      <c r="J148" t="n">
         <v>-0.05302362404268979</v>
       </c>
-      <c r="K148">
+      <c r="K148" t="n">
         <v>-0.05302362404268979</v>
       </c>
     </row>
-    <row r="149" spans="1:11">
-      <c r="A149" s="2">
+    <row r="149">
+      <c r="A149" s="2" t="n">
         <v>43983</v>
       </c>
-      <c r="B149">
+      <c r="B149" t="n">
         <v>23.32999992370605</v>
       </c>
-      <c r="C149">
+      <c r="C149" t="n">
         <v>23.45999908447266</v>
       </c>
-      <c r="D149">
+      <c r="D149" t="n">
         <v>23.19000053405762</v>
       </c>
-      <c r="E149">
+      <c r="E149" t="n">
         <v>23.21999931335449</v>
       </c>
-      <c r="F149">
-        <v>22.35528373718262</v>
-      </c>
-      <c r="G149">
+      <c r="F149" t="n">
+        <v>22.35528564453125</v>
+      </c>
+      <c r="G149" t="n">
         <v>301200</v>
       </c>
-      <c r="H149">
+      <c r="H149" t="n">
         <v>0.07450248299538287</v>
       </c>
-      <c r="I149">
+      <c r="I149" t="n">
         <v>0.08869610581698519</v>
       </c>
-      <c r="J149">
+      <c r="J149" t="n">
         <v>-0.02518893321397053</v>
       </c>
-      <c r="K149">
+      <c r="K149" t="n">
         <v>-0.02518893321397053</v>
       </c>
     </row>
-    <row r="150" spans="1:11">
-      <c r="A150" s="2">
+    <row r="150">
+      <c r="A150" s="2" t="n">
         <v>44013</v>
       </c>
-      <c r="B150">
+      <c r="B150" t="n">
         <v>21.5</v>
       </c>
-      <c r="C150">
+      <c r="C150" t="n">
         <v>21.6299991607666</v>
       </c>
-      <c r="D150">
+      <c r="D150" t="n">
         <v>21.31999969482422</v>
       </c>
-      <c r="E150">
+      <c r="E150" t="n">
         <v>21.56999969482422</v>
       </c>
-      <c r="F150">
+      <c r="F150" t="n">
         <v>20.76673126220703</v>
       </c>
-      <c r="G150">
+      <c r="G150" t="n">
         <v>370300</v>
       </c>
-      <c r="H150">
+      <c r="H150" t="n">
         <v>-0.07105941719736875</v>
       </c>
-      <c r="I150">
+      <c r="I150" t="n">
         <v>0.0875128862244051</v>
       </c>
-      <c r="J150">
+      <c r="J150" t="n">
         <v>-0.1735632421623136</v>
       </c>
-      <c r="K150">
+      <c r="K150" t="n">
         <v>-0.1735632421623136</v>
       </c>
     </row>
-    <row r="151" spans="1:11">
-      <c r="A151" s="2">
+    <row r="151">
+      <c r="A151" s="2" t="n">
         <v>44044</v>
       </c>
-      <c r="B151">
+      <c r="B151" t="n">
         <v>20.20999908447266</v>
       </c>
-      <c r="C151">
+      <c r="C151" t="n">
         <v>20.20999908447266</v>
       </c>
-      <c r="D151">
+      <c r="D151" t="n">
         <v>19.82999992370605</v>
       </c>
-      <c r="E151">
+      <c r="E151" t="n">
         <v>19.96999931335449</v>
       </c>
-      <c r="F151">
+      <c r="F151" t="n">
         <v>19.22631645202637</v>
       </c>
-      <c r="G151">
+      <c r="G151" t="n">
         <v>378900</v>
       </c>
-      <c r="H151">
+      <c r="H151" t="n">
         <v>-0.07417711655571557</v>
       </c>
-      <c r="I151">
+      <c r="I151" t="n">
         <v>0.08772890499579068</v>
       </c>
-      <c r="J151">
+      <c r="J151" t="n">
         <v>-0.1723995023661636</v>
       </c>
-      <c r="K151">
+      <c r="K151" t="n">
         <v>-0.1723995023661636</v>
       </c>
     </row>
-    <row r="152" spans="1:11">
-      <c r="A152" s="2">
+    <row r="152">
+      <c r="A152" s="2" t="n">
         <v>44075</v>
       </c>
-      <c r="B152">
+      <c r="B152" t="n">
         <v>19.67000007629395</v>
       </c>
-      <c r="C152">
+      <c r="C152" t="n">
         <v>19.97999954223633</v>
       </c>
-      <c r="D152">
+      <c r="D152" t="n">
         <v>19.6299991607666</v>
       </c>
-      <c r="E152">
+      <c r="E152" t="n">
         <v>19.76000022888184</v>
       </c>
-      <c r="F152">
-        <v>19.02413940429688</v>
-      </c>
-      <c r="G152">
+      <c r="F152" t="n">
+        <v>19.02413749694824</v>
+      </c>
+      <c r="G152" t="n">
         <v>435000</v>
       </c>
-      <c r="H152">
+      <c r="H152" t="n">
         <v>-0.01051572817692703</v>
       </c>
-      <c r="I152">
+      <c r="I152" t="n">
         <v>0.08642765381278283</v>
       </c>
-      <c r="J152">
+      <c r="J152" t="n">
         <v>-0.2604790143461603</v>
       </c>
-      <c r="K152">
+      <c r="K152" t="n">
         <v>-0.2604790143461603</v>
       </c>
     </row>
-    <row r="153" spans="1:11">
-      <c r="A153" s="2">
+    <row r="153">
+      <c r="A153" s="2" t="n">
         <v>44105</v>
       </c>
-      <c r="B153">
+      <c r="B153" t="n">
         <v>17.79000091552734</v>
       </c>
-      <c r="C153">
+      <c r="C153" t="n">
         <v>17.92000007629395</v>
       </c>
-      <c r="D153">
+      <c r="D153" t="n">
         <v>17.6200008392334</v>
       </c>
-      <c r="E153">
+      <c r="E153" t="n">
         <v>17.73999977111816</v>
       </c>
-      <c r="F153">
+      <c r="F153" t="n">
         <v>17.07936096191406</v>
       </c>
-      <c r="G153">
+      <c r="G153" t="n">
         <v>586600</v>
       </c>
-      <c r="H153">
+      <c r="H153" t="n">
         <v>-0.1022267426298495</v>
       </c>
-      <c r="I153">
+      <c r="I153" t="n">
         <v>0.08666629700372441</v>
       </c>
-      <c r="J153">
+      <c r="J153" t="n">
         <v>-0.2829426056895886</v>
       </c>
-      <c r="K153">
+      <c r="K153" t="n">
         <v>-0.2829426056895886</v>
       </c>
     </row>
-    <row r="154" spans="1:11">
-      <c r="A154" s="2">
+    <row r="154">
+      <c r="A154" s="2" t="n">
         <v>44136</v>
       </c>
-      <c r="B154">
+      <c r="B154" t="n">
         <v>22.61000061035156</v>
       </c>
-      <c r="C154">
+      <c r="C154" t="n">
         <v>22.6200008392334</v>
       </c>
-      <c r="D154">
+      <c r="D154" t="n">
         <v>22.20000076293945</v>
       </c>
-      <c r="E154">
+      <c r="E154" t="n">
         <v>22.29000091552734</v>
       </c>
-      <c r="F154">
+      <c r="F154" t="n">
         <v>21.45992088317871</v>
       </c>
-      <c r="G154">
+      <c r="G154" t="n">
         <v>248800</v>
       </c>
-      <c r="H154">
+      <c r="H154" t="n">
         <v>0.2564825931856476</v>
       </c>
-      <c r="I154">
+      <c r="I154" t="n">
         <v>0.089589690806788</v>
       </c>
-      <c r="J154">
+      <c r="J154" t="n">
         <v>-0.1601356387864146</v>
       </c>
-      <c r="K154">
+      <c r="K154" t="n">
         <v>-0.1601356387864146</v>
       </c>
     </row>
-    <row r="155" spans="1:11">
-      <c r="A155" s="2">
+    <row r="155">
+      <c r="A155" s="2" t="n">
         <v>44166</v>
       </c>
-      <c r="B155">
+      <c r="B155" t="n">
         <v>26.54999923706055</v>
       </c>
-      <c r="C155">
+      <c r="C155" t="n">
         <v>26.76000022888184</v>
       </c>
-      <c r="D155">
+      <c r="D155" t="n">
         <v>26.45000076293945</v>
       </c>
-      <c r="E155">
+      <c r="E155" t="n">
         <v>26.5</v>
       </c>
-      <c r="F155">
+      <c r="F155" t="n">
         <v>25.59653663635254</v>
       </c>
-      <c r="G155">
+      <c r="G155" t="n">
         <v>279000</v>
       </c>
-      <c r="H155">
+      <c r="H155" t="n">
         <v>0.1888738856686158</v>
       </c>
-      <c r="I155">
+      <c r="I155" t="n">
         <v>0.09132023250996846</v>
       </c>
-      <c r="J155">
+      <c r="J155" t="n">
         <v>-0.0217792598473473</v>
       </c>
-      <c r="K155">
+      <c r="K155" t="n">
         <v>-0.0217792598473473</v>
       </c>
     </row>
-    <row r="156" spans="1:11">
-      <c r="A156" s="2">
+    <row r="156">
+      <c r="A156" s="2" t="n">
         <v>44197</v>
       </c>
-      <c r="B156">
+      <c r="B156" t="n">
         <v>27.04999923706055</v>
       </c>
-      <c r="C156">
+      <c r="C156" t="n">
         <v>27.1200008392334</v>
       </c>
-      <c r="D156">
+      <c r="D156" t="n">
         <v>26.65999984741211</v>
       </c>
-      <c r="E156">
+      <c r="E156" t="n">
         <v>26.65999984741211</v>
       </c>
-      <c r="F156">
+      <c r="F156" t="n">
         <v>25.7510814666748</v>
       </c>
-      <c r="G156">
+      <c r="G156" t="n">
         <v>149700</v>
       </c>
-      <c r="H156">
+      <c r="H156" t="n">
         <v>0.006037730091023041</v>
       </c>
-      <c r="I156">
+      <c r="I156" t="n">
         <v>0.09094275085258112</v>
       </c>
-      <c r="J156">
+      <c r="J156" t="n">
         <v>-0.03927928477794196</v>
       </c>
-      <c r="K156">
+      <c r="K156" t="n">
         <v>-0.03927928477794196</v>
       </c>
     </row>
-    <row r="157" spans="1:11">
-      <c r="A157" s="2">
+    <row r="157">
+      <c r="A157" s="2" t="n">
         <v>44228</v>
       </c>
-      <c r="B157">
+      <c r="B157" t="n">
         <v>26.84000015258789</v>
       </c>
-      <c r="C157">
+      <c r="C157" t="n">
         <v>26.89999961853027</v>
       </c>
-      <c r="D157">
+      <c r="D157" t="n">
         <v>26.3700008392334</v>
       </c>
-      <c r="E157">
+      <c r="E157" t="n">
         <v>26.71999931335449</v>
       </c>
-      <c r="F157">
-        <v>25.80903625488281</v>
-      </c>
-      <c r="G157">
+      <c r="F157" t="n">
+        <v>25.80903434753418</v>
+      </c>
+      <c r="G157" t="n">
         <v>322200</v>
       </c>
-      <c r="H157">
+      <c r="H157" t="n">
         <v>0.002250542621372364</v>
       </c>
-      <c r="I157">
+      <c r="I157" t="n">
         <v>0.09092881158339004</v>
       </c>
-      <c r="J157">
+      <c r="J157" t="n">
         <v>0.1298097143485284</v>
       </c>
-      <c r="K157">
+      <c r="K157" t="n">
         <v>0.1298097143485284</v>
       </c>
     </row>
-    <row r="158" spans="1:11">
-      <c r="A158" s="2">
+    <row r="158">
+      <c r="A158" s="2" t="n">
         <v>44256</v>
       </c>
-      <c r="B158">
+      <c r="B158" t="n">
         <v>22.85000038146973</v>
       </c>
-      <c r="C158">
+      <c r="C158" t="n">
         <v>23.1299991607666</v>
       </c>
-      <c r="D158">
+      <c r="D158" t="n">
         <v>22.79000091552734</v>
       </c>
-      <c r="E158">
+      <c r="E158" t="n">
         <v>22.98999977111816</v>
       </c>
-      <c r="F158">
-        <v>22.20620346069336</v>
-      </c>
-      <c r="G158">
+      <c r="F158" t="n">
+        <v>22.20620155334473</v>
+      </c>
+      <c r="G158" t="n">
         <v>860300</v>
       </c>
-      <c r="H158">
+      <c r="H158" t="n">
         <v>-0.1395957948386659</v>
       </c>
-      <c r="I158">
+      <c r="I158" t="n">
         <v>0.09141275180222981</v>
       </c>
-      <c r="J158">
+      <c r="J158" t="n">
         <v>0.2235230788158238</v>
       </c>
-      <c r="K158">
+      <c r="K158" t="n">
         <v>0.2235230788158238</v>
       </c>
     </row>
-    <row r="159" spans="1:11">
-      <c r="A159" s="2">
+    <row r="159">
+      <c r="A159" s="2" t="n">
         <v>44287</v>
       </c>
-      <c r="B159">
+      <c r="B159" t="n">
         <v>23.30999946594238</v>
       </c>
-      <c r="C159">
+      <c r="C159" t="n">
         <v>23.40999984741211</v>
       </c>
-      <c r="D159">
+      <c r="D159" t="n">
         <v>23.15999984741211</v>
       </c>
-      <c r="E159">
+      <c r="E159" t="n">
         <v>23.30999946594238</v>
       </c>
-      <c r="F159">
+      <c r="F159" t="n">
         <v>22.51529312133789</v>
       </c>
-      <c r="G159">
+      <c r="G159" t="n">
         <v>250800</v>
       </c>
-      <c r="H159">
+      <c r="H159" t="n">
         <v>0.013919082123099</v>
       </c>
-      <c r="I159">
+      <c r="I159" t="n">
         <v>0.09085547798734675</v>
       </c>
-      <c r="J159">
+      <c r="J159" t="n">
         <v>0.1591247517886016</v>
       </c>
-      <c r="K159">
+      <c r="K159" t="n">
         <v>0.1591247517886016</v>
       </c>
     </row>
-    <row r="160" spans="1:11">
-      <c r="A160" s="2">
+    <row r="160">
+      <c r="A160" s="2" t="n">
         <v>44317</v>
       </c>
-      <c r="B160">
+      <c r="B160" t="n">
         <v>22.75</v>
       </c>
-      <c r="C160">
+      <c r="C160" t="n">
         <v>22.97999954223633</v>
       </c>
-      <c r="D160">
+      <c r="D160" t="n">
         <v>22.75</v>
       </c>
-      <c r="E160">
+      <c r="E160" t="n">
         <v>22.93000030517578</v>
       </c>
-      <c r="F160">
+      <c r="F160" t="n">
         <v>22.14824867248535</v>
       </c>
-      <c r="G160">
+      <c r="G160" t="n">
         <v>189600</v>
       </c>
-      <c r="H160">
+      <c r="H160" t="n">
         <v>-0.01630198067236377</v>
       </c>
-      <c r="I160">
+      <c r="I160" t="n">
         <v>0.09013418642929542</v>
       </c>
-      <c r="J160">
+      <c r="J160" t="n">
         <v>0.06108281617502209</v>
       </c>
-      <c r="K160">
+      <c r="K160" t="n">
         <v>0.06108281617502209</v>
       </c>
     </row>
-    <row r="161" spans="1:11">
-      <c r="A161" s="2">
+    <row r="161">
+      <c r="A161" s="2" t="n">
         <v>44348</v>
       </c>
-      <c r="B161">
+      <c r="B161" t="n">
         <v>21.21999931335449</v>
       </c>
-      <c r="C161">
+      <c r="C161" t="n">
         <v>21.23999977111816</v>
       </c>
-      <c r="D161">
+      <c r="D161" t="n">
         <v>20.89999961853027</v>
       </c>
-      <c r="E161">
+      <c r="E161" t="n">
         <v>21.06999969482422</v>
       </c>
-      <c r="F161">
+      <c r="F161" t="n">
         <v>20.97360038757324</v>
       </c>
-      <c r="G161">
+      <c r="G161" t="n">
         <v>786400</v>
       </c>
-      <c r="H161">
+      <c r="H161" t="n">
         <v>-0.08111646688167384</v>
       </c>
-      <c r="I161">
+      <c r="I161" t="n">
         <v>0.09037623478080145</v>
       </c>
-      <c r="J161">
+      <c r="J161" t="n">
         <v>-0.09259257890217709</v>
       </c>
-      <c r="K161">
+      <c r="K161" t="n">
         <v>-0.09259257890217709</v>
       </c>
     </row>
-    <row r="162" spans="1:11">
-      <c r="A162" s="2">
+    <row r="162">
+      <c r="A162" s="2" t="n">
         <v>44378</v>
       </c>
-      <c r="B162">
+      <c r="B162" t="n">
         <v>22.03000068664551</v>
       </c>
-      <c r="C162">
+      <c r="C162" t="n">
         <v>22.19000053405762</v>
       </c>
-      <c r="D162">
+      <c r="D162" t="n">
         <v>22.03000068664551</v>
       </c>
-      <c r="E162">
+      <c r="E162" t="n">
         <v>22.15999984741211</v>
       </c>
-      <c r="F162">
+      <c r="F162" t="n">
         <v>22.05861282348633</v>
       </c>
-      <c r="G162">
+      <c r="G162" t="n">
         <v>112100</v>
       </c>
-      <c r="H162">
+      <c r="H162" t="n">
         <v>0.05173232882654699</v>
       </c>
-      <c r="I162">
+      <c r="I162" t="n">
         <v>0.09035799481364452</v>
       </c>
-      <c r="J162">
+      <c r="J162" t="n">
         <v>0.02735281228258257</v>
       </c>
-      <c r="K162">
+      <c r="K162" t="n">
         <v>0.02735281228258257</v>
       </c>
     </row>
-    <row r="163" spans="1:11">
-      <c r="A163" s="2">
+    <row r="163">
+      <c r="A163" s="2" t="n">
         <v>44409</v>
       </c>
-      <c r="B163">
+      <c r="B163" t="n">
         <v>23.70999908447266</v>
       </c>
-      <c r="C163">
+      <c r="C163" t="n">
         <v>24.01000022888184</v>
       </c>
-      <c r="D163">
+      <c r="D163" t="n">
         <v>23.70000076293945</v>
       </c>
-      <c r="E163">
+      <c r="E163" t="n">
         <v>23.79000091552734</v>
       </c>
-      <c r="F163">
+      <c r="F163" t="n">
         <v>23.68115615844727</v>
       </c>
-      <c r="G163">
+      <c r="G163" t="n">
         <v>422600</v>
       </c>
-      <c r="H163">
+      <c r="H163" t="n">
         <v>0.07355600538533347</v>
       </c>
-      <c r="I163">
+      <c r="I163" t="n">
         <v>0.09004686211116184</v>
       </c>
-      <c r="J163">
+      <c r="J163" t="n">
         <v>0.1912870172017638</v>
       </c>
-      <c r="K163">
+      <c r="K163" t="n">
         <v>0.1912870172017638</v>
       </c>
     </row>
-    <row r="164" spans="1:11">
-      <c r="A164" s="2">
+    <row r="164">
+      <c r="A164" s="2" t="n">
         <v>44440</v>
       </c>
-      <c r="B164">
+      <c r="B164" t="n">
         <v>21.22999954223633</v>
       </c>
-      <c r="C164">
+      <c r="C164" t="n">
         <v>21.5</v>
       </c>
-      <c r="D164">
+      <c r="D164" t="n">
         <v>21.19000053405762</v>
       </c>
-      <c r="E164">
+      <c r="E164" t="n">
         <v>21.26000022888184</v>
       </c>
-      <c r="F164">
+      <c r="F164" t="n">
         <v>21.1627311706543</v>
       </c>
-      <c r="G164">
+      <c r="G164" t="n">
         <v>257300</v>
       </c>
-      <c r="H164">
+      <c r="H164" t="n">
         <v>-0.1063472294780038</v>
       </c>
-      <c r="I164">
+      <c r="I164" t="n">
         <v>0.09049335546390663</v>
       </c>
-      <c r="J164">
+      <c r="J164" t="n">
         <v>0.075910930294806</v>
       </c>
-      <c r="K164">
+      <c r="K164" t="n">
         <v>0.075910930294806</v>
       </c>
     </row>
-    <row r="165" spans="1:11">
-      <c r="A165" s="2">
+    <row r="165">
+      <c r="A165" s="2" t="n">
         <v>44470</v>
       </c>
-      <c r="B165">
+      <c r="B165" t="n">
         <v>21.38999938964844</v>
       </c>
-      <c r="C165">
+      <c r="C165" t="n">
         <v>21.38999938964844</v>
       </c>
-      <c r="D165">
+      <c r="D165" t="n">
         <v>21.14999961853027</v>
       </c>
-      <c r="E165">
+      <c r="E165" t="n">
         <v>21.29999923706055</v>
       </c>
-      <c r="F165">
+      <c r="F165" t="n">
         <v>21.20254707336426</v>
       </c>
-      <c r="G165">
+      <c r="G165" t="n">
         <v>105700</v>
       </c>
-      <c r="H165">
+      <c r="H165" t="n">
         <v>0.001881420872440698</v>
       </c>
-      <c r="I165">
+      <c r="I165" t="n">
         <v>0.09049142467805704</v>
       </c>
-      <c r="J165">
+      <c r="J165" t="n">
         <v>0.2006764099139553</v>
       </c>
-      <c r="K165">
+      <c r="K165" t="n">
         <v>0.2006764099139553</v>
       </c>
     </row>
-    <row r="166" spans="1:11">
-      <c r="A166" s="2">
+    <row r="166">
+      <c r="A166" s="2" t="n">
         <v>44501</v>
       </c>
-      <c r="B166">
+      <c r="B166" t="n">
         <v>18.75</v>
       </c>
-      <c r="C166">
+      <c r="C166" t="n">
         <v>18.75</v>
       </c>
-      <c r="D166">
+      <c r="D166" t="n">
         <v>17.80999946594238</v>
       </c>
-      <c r="E166">
+      <c r="E166" t="n">
         <v>17.95999908447266</v>
       </c>
-      <c r="F166">
+      <c r="F166" t="n">
         <v>17.87782859802246</v>
       </c>
-      <c r="G166">
+      <c r="G166" t="n">
         <v>1902400</v>
       </c>
-      <c r="H166">
+      <c r="H166" t="n">
         <v>-0.15680752451749</v>
       </c>
-      <c r="I166">
+      <c r="I166" t="n">
         <v>0.0914867320325372</v>
       </c>
-      <c r="J166">
+      <c r="J166" t="n">
         <v>-0.1942575887486117</v>
       </c>
-      <c r="K166">
+      <c r="K166" t="n">
         <v>-0.1942575887486117</v>
       </c>
     </row>
-    <row r="167" spans="1:11">
-      <c r="A167" s="2">
+    <row r="167">
+      <c r="A167" s="2" t="n">
         <v>44531</v>
       </c>
-      <c r="B167">
+      <c r="B167" t="n">
         <v>18.80999946594238</v>
       </c>
-      <c r="C167">
+      <c r="C167" t="n">
         <v>18.89999961853027</v>
       </c>
-      <c r="D167">
+      <c r="D167" t="n">
         <v>18.29999923706055</v>
       </c>
-      <c r="E167">
+      <c r="E167" t="n">
         <v>18.57999992370605</v>
       </c>
-      <c r="F167">
+      <c r="F167" t="n">
         <v>18.57999992370605</v>
       </c>
-      <c r="G167">
+      <c r="G167" t="n">
         <v>790500</v>
       </c>
-      <c r="H167">
+      <c r="H167" t="n">
         <v>0.03452120661684344</v>
       </c>
-      <c r="I167">
+      <c r="I167" t="n">
         <v>0.09115468766168695</v>
       </c>
-      <c r="J167">
+      <c r="J167" t="n">
         <v>-0.2988679274073187</v>
       </c>
-      <c r="K167">
+      <c r="K167" t="n">
         <v>-0.2988679274073187</v>
       </c>
     </row>
-    <row r="168" spans="1:11">
-      <c r="A168" s="2">
+    <row r="168">
+      <c r="A168" s="2" t="n">
         <v>44562</v>
       </c>
-      <c r="B168">
-        <v>19.30999946594238</v>
-      </c>
-      <c r="C168">
-        <v>20.47150039672852</v>
-      </c>
-      <c r="D168">
-        <v>19.19070053100586</v>
-      </c>
-      <c r="E168">
-        <v>20.13999938964844</v>
-      </c>
-      <c r="F168">
-        <v>20.13999938964844</v>
-      </c>
-      <c r="G168">
-        <v>1457316</v>
-      </c>
-      <c r="H168">
-        <v>0.08396122025554975</v>
-      </c>
-      <c r="I168">
-        <v>0.09002931760292594</v>
-      </c>
-      <c r="J168">
-        <v>-0.2445611588552417</v>
-      </c>
-      <c r="K168">
-        <v>-0.2445611588552417</v>
+      <c r="B168" t="n">
+        <v>19.70000076293945</v>
+      </c>
+      <c r="C168" t="n">
+        <v>19.77989959716797</v>
+      </c>
+      <c r="D168" t="n">
+        <v>19.39999961853027</v>
+      </c>
+      <c r="E168" t="n">
+        <v>19.40999984741211</v>
+      </c>
+      <c r="F168" t="n">
+        <v>19.40999984741211</v>
+      </c>
+      <c r="G168" t="n">
+        <v>111472</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0.04467168606642802</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0.08978081558000929</v>
+      </c>
+      <c r="J168" t="n">
+        <v>-0.271942987302896</v>
+      </c>
+      <c r="K168" t="n">
+        <v>-0.271942987302896</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>